--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE4AEBE-D51F-48DC-9BB4-8301C2978A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B4AC5-235F-48F7-BDED-3D10673871EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.1.都度起動バッチ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$170</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$176</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$176</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$176</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$172</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -283,49 +283,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロセス停止制御ハンドラはデータベースに保存された処理停止フラグをループごとに監視しており、</t>
-    <rPh sb="4" eb="6">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>ショリテイシ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フラグがオンになるとバッチを強制停止させる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>したがって、処理停止フラグをオンにするジョブ（都度起動バッチ停止ジョブ）を用意することで、</t>
-    <rPh sb="6" eb="10">
-      <t>ショリテイシ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>ツドキドウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチを強制停止させられるようになる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>都度起動バッチの基本的な処理シーケンスは下記のとおり。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -639,6 +596,27 @@
   </si>
   <si>
     <t>都度起動バッチ毎にエラー内容を一意に識別できるように、「100」から順に採番を行なう。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラグがオンになるとバッチを強制停止させる。</t>
+  </si>
+  <si>
+    <t>したがって、処理停止フラグをオンにするジョブ（都度起動バッチ停止ジョブ）を用意することで、</t>
+  </si>
+  <si>
+    <t>処理対象の入力リクエストがあってもループ処理を抜けてバッチを強制停止させられるようになる。</t>
+  </si>
+  <si>
+    <t>プロセス停止制御ハンドラはデータベースに保存された処理停止フラグを監視しており、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロセス停止制御ハンドラをトランザクションループ制御ハンドラの後続に配置することで、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ループごとに処理停止フラグを監視させることができる。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -978,6 +956,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1043,24 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2845,13 +2823,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>111597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3223,7 +3201,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ607"/>
+  <dimension ref="A1:AJ609"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3239,43 +3217,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3284,43 +3262,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3329,39 +3307,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="38"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3735,7 +3713,7 @@
     <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
       <c r="F53" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3744,99 +3722,109 @@
     <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
       <c r="F55" s="4" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
       <c r="F56" s="4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
       <c r="F57" s="4" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
+      <c r="F59" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
-      <c r="F61" s="4" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
+      <c r="F62" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
       <c r="F63" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="15"/>
+      <c r="F65" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="4" t="s">
+    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="15" t="str">
+    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D71" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>4.1.3.</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3877,361 +3865,311 @@
     <row r="113" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D116" s="15" t="str">
+    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.1.4.</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E117" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D123" s="15" t="str">
+      <c r="E123" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>4.1.5.</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E125" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E126" s="15" t="str">
+        <f>$D$125&amp;"1."</f>
+        <v>4.1.5.1.</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F127" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E130" s="15" t="str">
+        <f>$D$125&amp;"2."</f>
+        <v>4.1.5.2.</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="15" t="str">
-        <f>$D$123&amp;"1."</f>
-        <v>4.1.5.1.</v>
-      </c>
-      <c r="F124" s="4" t="s">
+    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F125" s="4" t="s">
+    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="15" t="str">
+        <f>$D$125&amp;"3."</f>
+        <v>4.1.5.3.</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F126" s="4" t="s">
+    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="15" t="str">
-        <f>$D$123&amp;"2."</f>
-        <v>4.1.5.2.</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F129" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E131" s="15" t="str">
-        <f>$D$123&amp;"3."</f>
-        <v>4.1.5.3.</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F132" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D134" s="15" t="str">
+    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>4.1.6.</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="15" t="str">
-        <f>$D$134&amp;"1."</f>
+      <c r="E136" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E137" s="15" t="str">
+        <f>$D$136&amp;"1."</f>
         <v>4.1.6.1.</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F136" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="15" t="str">
-        <f>$D$134&amp;"2."</f>
+      <c r="F140" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E142" s="15" t="str">
+        <f>$D$136&amp;"2."</f>
         <v>4.1.6.2.</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
-      <c r="F141" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F142" s="4" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E143" s="15"/>
       <c r="F143" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F144" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D145" s="15" t="str">
+      <c r="F145" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D147" s="15" t="str">
         <f>$C$7&amp;"7."</f>
         <v>4.1.7.</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="15" t="str">
-        <f>$D$145&amp;"1."</f>
+    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="15" t="str">
+        <f>$D$147&amp;"1."</f>
         <v>4.1.7.1.</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F148" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F149" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F150" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F154" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F155" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E157" s="15" t="str">
-        <f>$D$145&amp;"2."</f>
+      <c r="F157" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E159" s="15" t="str">
+        <f>$D$147&amp;"2."</f>
         <v>4.1.7.2.</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F158" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F159" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F161" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F163" s="31" t="s">
+      <c r="F163" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F165" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32"/>
-      <c r="I163" s="31" t="s">
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J163" s="32"/>
-      <c r="K163" s="32"/>
-      <c r="L163" s="32"/>
-      <c r="M163" s="32"/>
-      <c r="N163" s="32"/>
-      <c r="O163" s="32"/>
-      <c r="P163" s="32"/>
-      <c r="Q163" s="32"/>
-      <c r="R163" s="32"/>
-      <c r="S163" s="32"/>
-      <c r="T163" s="32"/>
-      <c r="U163" s="32"/>
-      <c r="V163" s="32"/>
-      <c r="W163" s="32"/>
-      <c r="X163" s="32"/>
-      <c r="Y163" s="32"/>
-      <c r="Z163" s="32"/>
-      <c r="AA163" s="32"/>
-      <c r="AB163" s="63"/>
-    </row>
-    <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F164" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G164" s="60"/>
-      <c r="H164" s="60"/>
-      <c r="I164" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="J164" s="60"/>
-      <c r="K164" s="60"/>
-      <c r="L164" s="60"/>
-      <c r="M164" s="60"/>
-      <c r="N164" s="60"/>
-      <c r="O164" s="60"/>
-      <c r="P164" s="60"/>
-      <c r="Q164" s="60"/>
-      <c r="R164" s="60"/>
-      <c r="S164" s="60"/>
-      <c r="T164" s="60"/>
-      <c r="U164" s="60"/>
-      <c r="V164" s="60"/>
-      <c r="W164" s="60"/>
-      <c r="X164" s="60"/>
-      <c r="Y164" s="60"/>
-      <c r="Z164" s="60"/>
-      <c r="AA164" s="60"/>
-      <c r="AB164" s="62"/>
-    </row>
-    <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F165" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J165" s="18"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="18"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="18"/>
-      <c r="P165" s="18"/>
-      <c r="Q165" s="18"/>
-      <c r="R165" s="18"/>
-      <c r="S165" s="18"/>
-      <c r="T165" s="18"/>
-      <c r="U165" s="18"/>
-      <c r="V165" s="18"/>
-      <c r="W165" s="18"/>
-      <c r="X165" s="18"/>
-      <c r="Y165" s="18"/>
-      <c r="Z165" s="18"/>
-      <c r="AA165" s="18"/>
-      <c r="AB165" s="19"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="32"/>
+      <c r="L165" s="32"/>
+      <c r="M165" s="32"/>
+      <c r="N165" s="32"/>
+      <c r="O165" s="32"/>
+      <c r="P165" s="32"/>
+      <c r="Q165" s="32"/>
+      <c r="R165" s="32"/>
+      <c r="S165" s="32"/>
+      <c r="T165" s="32"/>
+      <c r="U165" s="32"/>
+      <c r="V165" s="32"/>
+      <c r="W165" s="32"/>
+      <c r="X165" s="32"/>
+      <c r="Y165" s="32"/>
+      <c r="Z165" s="32"/>
+      <c r="AA165" s="32"/>
+      <c r="AB165" s="41"/>
     </row>
     <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="17"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="18"/>
-      <c r="P166" s="18"/>
-      <c r="Q166" s="18"/>
-      <c r="R166" s="18"/>
-      <c r="S166" s="18"/>
-      <c r="T166" s="18"/>
-      <c r="U166" s="18"/>
-      <c r="V166" s="18"/>
-      <c r="W166" s="18"/>
-      <c r="X166" s="18"/>
-      <c r="Y166" s="18"/>
-      <c r="Z166" s="18"/>
-      <c r="AA166" s="18"/>
-      <c r="AB166" s="19"/>
+      <c r="F166" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G166" s="38"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J166" s="38"/>
+      <c r="K166" s="38"/>
+      <c r="L166" s="38"/>
+      <c r="M166" s="38"/>
+      <c r="N166" s="38"/>
+      <c r="O166" s="38"/>
+      <c r="P166" s="38"/>
+      <c r="Q166" s="38"/>
+      <c r="R166" s="38"/>
+      <c r="S166" s="38"/>
+      <c r="T166" s="38"/>
+      <c r="U166" s="38"/>
+      <c r="V166" s="38"/>
+      <c r="W166" s="38"/>
+      <c r="X166" s="38"/>
+      <c r="Y166" s="38"/>
+      <c r="Z166" s="38"/>
+      <c r="AA166" s="38"/>
+      <c r="AB166" s="40"/>
     </row>
     <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="17"/>
+      <c r="F167" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
-      <c r="I167" s="17"/>
+      <c r="I167" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="J167" s="18"/>
       <c r="K167" s="18"/>
       <c r="L167" s="18"/>
@@ -4257,7 +4195,7 @@
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J168" s="18"/>
       <c r="K168" s="18"/>
@@ -4280,47 +4218,97 @@
       <c r="AB168" s="19"/>
     </row>
     <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="28"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="29"/>
-      <c r="I169" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J169" s="29"/>
-      <c r="K169" s="29"/>
-      <c r="L169" s="29"/>
-      <c r="M169" s="29"/>
-      <c r="N169" s="29"/>
-      <c r="O169" s="29"/>
-      <c r="P169" s="29"/>
-      <c r="Q169" s="29"/>
-      <c r="R169" s="29"/>
-      <c r="S169" s="29"/>
-      <c r="T169" s="29"/>
-      <c r="U169" s="29"/>
-      <c r="V169" s="29"/>
-      <c r="W169" s="29"/>
-      <c r="X169" s="29"/>
-      <c r="Y169" s="29"/>
-      <c r="Z169" s="29"/>
-      <c r="AA169" s="29"/>
-      <c r="AB169" s="30"/>
-    </row>
-    <row r="170" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D171" s="20"/>
-    </row>
-    <row r="172" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D172" s="20"/>
-    </row>
+      <c r="F169" s="17"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
+      <c r="O169" s="18"/>
+      <c r="P169" s="18"/>
+      <c r="Q169" s="18"/>
+      <c r="R169" s="18"/>
+      <c r="S169" s="18"/>
+      <c r="T169" s="18"/>
+      <c r="U169" s="18"/>
+      <c r="V169" s="18"/>
+      <c r="W169" s="18"/>
+      <c r="X169" s="18"/>
+      <c r="Y169" s="18"/>
+      <c r="Z169" s="18"/>
+      <c r="AA169" s="18"/>
+      <c r="AB169" s="19"/>
+    </row>
+    <row r="170" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F170" s="17"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="18"/>
+      <c r="N170" s="18"/>
+      <c r="O170" s="18"/>
+      <c r="P170" s="18"/>
+      <c r="Q170" s="18"/>
+      <c r="R170" s="18"/>
+      <c r="S170" s="18"/>
+      <c r="T170" s="18"/>
+      <c r="U170" s="18"/>
+      <c r="V170" s="18"/>
+      <c r="W170" s="18"/>
+      <c r="X170" s="18"/>
+      <c r="Y170" s="18"/>
+      <c r="Z170" s="18"/>
+      <c r="AA170" s="18"/>
+      <c r="AB170" s="19"/>
+    </row>
+    <row r="171" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F171" s="28"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J171" s="29"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29"/>
+      <c r="O171" s="29"/>
+      <c r="P171" s="29"/>
+      <c r="Q171" s="29"/>
+      <c r="R171" s="29"/>
+      <c r="S171" s="29"/>
+      <c r="T171" s="29"/>
+      <c r="U171" s="29"/>
+      <c r="V171" s="29"/>
+      <c r="W171" s="29"/>
+      <c r="X171" s="29"/>
+      <c r="Y171" s="29"/>
+      <c r="Z171" s="29"/>
+      <c r="AA171" s="29"/>
+      <c r="AB171" s="30"/>
+    </row>
+    <row r="172" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="173" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="20"/>
     </row>
-    <row r="174" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D174" s="20"/>
+    </row>
+    <row r="175" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D175" s="20"/>
+    </row>
     <row r="176" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4750,6 +4738,8 @@
     <row r="605" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="606" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="607" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4769,8 +4759,8 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="25" max="34" man="1"/>
-    <brk id="68" max="34" man="1"/>
-    <brk id="144" max="34" man="1"/>
+    <brk id="70" max="34" man="1"/>
+    <brk id="146" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B4AC5-235F-48F7-BDED-3D10673871EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532CF5CF-C6F9-47A1-B216-52E37B7D0075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,13 +114,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブ起動</t>
-    <rPh sb="3" eb="5">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー処理</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
@@ -160,17 +153,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブの概念</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>概念</t>
-    <rPh sb="0" eb="2">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジョブネット</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -617,6 +599,39 @@
   </si>
   <si>
     <t>ループごとに処理停止フラグを監視させることができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチの構成要素</t>
+    <rPh sb="4" eb="8">
+      <t>コウセイヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチを構成する各要素について、以下で説明する。</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成要素</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイヨウソ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3233,7 +3248,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="49"/>
       <c r="T1" s="49"/>
@@ -3373,13 +3388,13 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="15"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3389,7 +3404,7 @@
         <v>4.1.2.</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3398,25 +3413,25 @@
         <v>4.1.2.1.</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="31" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -3442,14 +3457,14 @@
     </row>
     <row r="18" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3480,7 +3495,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -3511,7 +3526,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -3542,7 +3557,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -3568,14 +3583,14 @@
     </row>
     <row r="22" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="24"/>
       <c r="K22" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -3601,14 +3616,14 @@
     </row>
     <row r="23" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
       <c r="K23" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -3639,7 +3654,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="27"/>
       <c r="K24" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
@@ -3692,12 +3707,12 @@
     <row r="48" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G50" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3707,13 +3722,13 @@
         <v>4.1.2.2.</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
       <c r="F53" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3722,37 +3737,37 @@
     <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
       <c r="F55" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
       <c r="F56" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
       <c r="F57" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3761,13 +3776,13 @@
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
       <c r="F63" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3776,23 +3791,23 @@
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F69" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3802,27 +3817,27 @@
         <v>4.1.3.</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3873,32 +3888,32 @@
         <v>4.1.4.</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3908,7 +3923,7 @@
         <v>4.1.5.</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3917,17 +3932,17 @@
         <v>4.1.5.1.</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F127" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F128" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3937,12 +3952,12 @@
         <v>4.1.5.2.</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F131" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3952,12 +3967,12 @@
         <v>4.1.5.3.</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F134" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3967,7 +3982,7 @@
         <v>4.1.6.</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3976,22 +3991,22 @@
         <v>4.1.6.1.</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F139" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F140" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4001,23 +4016,23 @@
         <v>4.1.6.2.</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="15"/>
       <c r="F143" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F144" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F145" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4027,7 +4042,7 @@
         <v>4.1.7.</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4036,44 +4051,44 @@
         <v>4.1.7.1.</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F149" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F150" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F154" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F155" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F157" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4083,34 +4098,34 @@
         <v>4.1.7.2.</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F160" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F161" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F163" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F165" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G165" s="32"/>
       <c r="H165" s="32"/>
       <c r="I165" s="31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J165" s="32"/>
       <c r="K165" s="32"/>
@@ -4134,12 +4149,12 @@
     </row>
     <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F166" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G166" s="38"/>
       <c r="H166" s="38"/>
       <c r="I166" s="39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J166" s="38"/>
       <c r="K166" s="38"/>
@@ -4163,12 +4178,12 @@
     </row>
     <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F167" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
       <c r="I167" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J167" s="18"/>
       <c r="K167" s="18"/>
@@ -4195,7 +4210,7 @@
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J168" s="18"/>
       <c r="K168" s="18"/>
@@ -4247,7 +4262,7 @@
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J170" s="18"/>
       <c r="K170" s="18"/>
@@ -4274,7 +4289,7 @@
       <c r="G171" s="29"/>
       <c r="H171" s="29"/>
       <c r="I171" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532CF5CF-C6F9-47A1-B216-52E37B7D0075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55072F83-1E46-43A1-A27C-39C4DECC83BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,7 +1564,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
                   <a:t>シェルスクリプト</a:t>
                 </a:r>
               </a:p>
@@ -1884,7 +1884,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
                   <a:t>シェルスクリプト</a:t>
                 </a:r>
               </a:p>
@@ -2125,7 +2125,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
                   <a:t>シェルスクリプト</a:t>
                 </a:r>
               </a:p>
@@ -2366,7 +2366,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
                   <a:t>シェルスクリプト</a:t>
                 </a:r>
               </a:p>
@@ -2607,7 +2607,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
                   <a:t>シェルスクリプト</a:t>
                 </a:r>
               </a:p>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55072F83-1E46-43A1-A27C-39C4DECC83BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E874BA-25FA-4D3F-AE7C-F3DCD54D9903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.1.都度起動バッチ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$172</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$174</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブ管理ツールがシェルスクリプトを起動することで、紐付いたJavaバッチプログラムが起動される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>強制停止</t>
     <rPh sb="0" eb="4">
       <t>キョウセイテイシ</t>
@@ -631,6 +627,49 @@
     <t>構成要素</t>
     <rPh sb="0" eb="4">
       <t>コウセイヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブスケジューラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブスケジューラがシェルスクリプトを起動することで、紐付いたJavaバッチプログラムが起動される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブの実行を制御するソフトウェアである。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブネットに設定された起動時刻などの条件に従って各ジョブの実行を制御する。</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キドウジコク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1088,13 +1127,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>63367</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1110,7 +1149,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="339592" y="3800475"/>
+          <a:off x="339592" y="4086225"/>
           <a:ext cx="8718682" cy="2981325"/>
           <a:chOff x="72892" y="3990975"/>
           <a:chExt cx="8718682" cy="2981325"/>
@@ -2838,13 +2877,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>111597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3216,7 +3255,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ609"/>
+  <dimension ref="A1:AJ611"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3413,18 +3452,18 @@
         <v>4.1.2.1.</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3457,14 +3496,14 @@
     </row>
     <row r="18" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3489,44 +3528,46 @@
       <c r="AF18" s="19"/>
     </row>
     <row r="19" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="19"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="30"/>
     </row>
     <row r="20" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -3551,144 +3592,204 @@
       <c r="AF20" s="19"/>
     </row>
     <row r="21" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="19"/>
+    </row>
+    <row r="22" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="19"/>
+    </row>
+    <row r="23" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="27"/>
-    </row>
-    <row r="22" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="22" t="s">
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="27"/>
+    </row>
+    <row r="24" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="22" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="24"/>
-    </row>
-    <row r="23" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="17" t="s">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="24"/>
+    </row>
+    <row r="25" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="17" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="19"/>
-    </row>
-    <row r="24" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="25" t="s">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="19"/>
+    </row>
+    <row r="26" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="27"/>
-      <c r="AI24"/>
-    </row>
-    <row r="25" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="27"/>
+      <c r="AI26"/>
+    </row>
     <row r="27" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AJ30" s="21"/>
-    </row>
+    <row r="30" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ32" s="21"/>
+    </row>
     <row r="33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3705,134 +3806,126 @@
     <row r="46" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="4" t="s">
+    <row r="49" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G50" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="15" t="str">
+      <c r="G52" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="15" t="str">
         <f>$D$13&amp;"2."</f>
         <v>4.1.2.2.</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="15"/>
-      <c r="F53" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="15"/>
+      <c r="F54" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
       <c r="F55" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
-      <c r="F56" s="4" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
       <c r="F57" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
+      <c r="F61" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
-      <c r="F63" s="4" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
+      <c r="F64" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="15"/>
+      <c r="F67" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71" s="15" t="str">
+      <c r="F71" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>4.1.3.</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3840,8 +3933,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3882,361 +3983,311 @@
     <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D118" s="15" t="str">
+    <row r="118" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.1.4.</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D125" s="15" t="str">
+      <c r="E125" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D127" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>4.1.5.</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E127" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E128" s="15" t="str">
+        <f>$D$127&amp;"1."</f>
+        <v>4.1.5.1.</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E126" s="15" t="str">
-        <f>$D$125&amp;"1."</f>
-        <v>4.1.5.1.</v>
-      </c>
-      <c r="F126" s="4" t="s">
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="4" t="s">
+    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F130" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="4" t="s">
+    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="15" t="str">
+        <f>$D$127&amp;"2."</f>
+        <v>4.1.5.2.</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="15" t="str">
-        <f>$D$125&amp;"2."</f>
-        <v>4.1.5.2.</v>
-      </c>
-      <c r="F130" s="4" t="s">
+    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F133" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F131" s="4" t="s">
+    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="15" t="str">
+        <f>$D$127&amp;"3."</f>
+        <v>4.1.5.3.</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E133" s="15" t="str">
-        <f>$D$125&amp;"3."</f>
-        <v>4.1.5.3.</v>
-      </c>
-      <c r="F133" s="4" t="s">
+    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F136" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F134" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D136" s="15" t="str">
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>4.1.6.</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E138" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E139" s="15" t="str">
+        <f>$D$138&amp;"1."</f>
+        <v>4.1.6.1.</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="15" t="str">
-        <f>$D$136&amp;"1."</f>
-        <v>4.1.6.1.</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F139" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F140" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E144" s="15" t="str">
+        <f>$D$138&amp;"2."</f>
+        <v>4.1.6.2.</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="15" t="str">
-        <f>$D$136&amp;"2."</f>
-        <v>4.1.6.2.</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="4" t="s">
+    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="15"/>
+      <c r="F145" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F146" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D147" s="15" t="str">
+      <c r="F147" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="15" t="str">
         <f>$C$7&amp;"7."</f>
         <v>4.1.7.</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="15" t="str">
-        <f>$D$147&amp;"1."</f>
+    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="15" t="str">
+        <f>$D$149&amp;"1."</f>
         <v>4.1.7.1.</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F150" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F152" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F155" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F156" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F157" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E159" s="15" t="str">
-        <f>$D$147&amp;"2."</f>
+      <c r="F159" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E161" s="15" t="str">
+        <f>$D$149&amp;"2."</f>
         <v>4.1.7.2.</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="F161" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F163" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F165" s="31" t="s">
+      <c r="F165" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F167" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
-      <c r="I165" s="31" t="s">
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J165" s="32"/>
-      <c r="K165" s="32"/>
-      <c r="L165" s="32"/>
-      <c r="M165" s="32"/>
-      <c r="N165" s="32"/>
-      <c r="O165" s="32"/>
-      <c r="P165" s="32"/>
-      <c r="Q165" s="32"/>
-      <c r="R165" s="32"/>
-      <c r="S165" s="32"/>
-      <c r="T165" s="32"/>
-      <c r="U165" s="32"/>
-      <c r="V165" s="32"/>
-      <c r="W165" s="32"/>
-      <c r="X165" s="32"/>
-      <c r="Y165" s="32"/>
-      <c r="Z165" s="32"/>
-      <c r="AA165" s="32"/>
-      <c r="AB165" s="41"/>
-    </row>
-    <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="37" t="s">
+      <c r="J167" s="32"/>
+      <c r="K167" s="32"/>
+      <c r="L167" s="32"/>
+      <c r="M167" s="32"/>
+      <c r="N167" s="32"/>
+      <c r="O167" s="32"/>
+      <c r="P167" s="32"/>
+      <c r="Q167" s="32"/>
+      <c r="R167" s="32"/>
+      <c r="S167" s="32"/>
+      <c r="T167" s="32"/>
+      <c r="U167" s="32"/>
+      <c r="V167" s="32"/>
+      <c r="W167" s="32"/>
+      <c r="X167" s="32"/>
+      <c r="Y167" s="32"/>
+      <c r="Z167" s="32"/>
+      <c r="AA167" s="32"/>
+      <c r="AB167" s="41"/>
+    </row>
+    <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F168" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G168" s="38"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J168" s="38"/>
+      <c r="K168" s="38"/>
+      <c r="L168" s="38"/>
+      <c r="M168" s="38"/>
+      <c r="N168" s="38"/>
+      <c r="O168" s="38"/>
+      <c r="P168" s="38"/>
+      <c r="Q168" s="38"/>
+      <c r="R168" s="38"/>
+      <c r="S168" s="38"/>
+      <c r="T168" s="38"/>
+      <c r="U168" s="38"/>
+      <c r="V168" s="38"/>
+      <c r="W168" s="38"/>
+      <c r="X168" s="38"/>
+      <c r="Y168" s="38"/>
+      <c r="Z168" s="38"/>
+      <c r="AA168" s="38"/>
+      <c r="AB168" s="40"/>
+    </row>
+    <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G166" s="38"/>
-      <c r="H166" s="38"/>
-      <c r="I166" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="J166" s="38"/>
-      <c r="K166" s="38"/>
-      <c r="L166" s="38"/>
-      <c r="M166" s="38"/>
-      <c r="N166" s="38"/>
-      <c r="O166" s="38"/>
-      <c r="P166" s="38"/>
-      <c r="Q166" s="38"/>
-      <c r="R166" s="38"/>
-      <c r="S166" s="38"/>
-      <c r="T166" s="38"/>
-      <c r="U166" s="38"/>
-      <c r="V166" s="38"/>
-      <c r="W166" s="38"/>
-      <c r="X166" s="38"/>
-      <c r="Y166" s="38"/>
-      <c r="Z166" s="38"/>
-      <c r="AA166" s="38"/>
-      <c r="AB166" s="40"/>
-    </row>
-    <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="18"/>
-      <c r="Q167" s="18"/>
-      <c r="R167" s="18"/>
-      <c r="S167" s="18"/>
-      <c r="T167" s="18"/>
-      <c r="U167" s="18"/>
-      <c r="V167" s="18"/>
-      <c r="W167" s="18"/>
-      <c r="X167" s="18"/>
-      <c r="Y167" s="18"/>
-      <c r="Z167" s="18"/>
-      <c r="AA167" s="18"/>
-      <c r="AB167" s="19"/>
-    </row>
-    <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F168" s="17"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-      <c r="R168" s="18"/>
-      <c r="S168" s="18"/>
-      <c r="T168" s="18"/>
-      <c r="U168" s="18"/>
-      <c r="V168" s="18"/>
-      <c r="W168" s="18"/>
-      <c r="X168" s="18"/>
-      <c r="Y168" s="18"/>
-      <c r="Z168" s="18"/>
-      <c r="AA168" s="18"/>
-      <c r="AB168" s="19"/>
-    </row>
-    <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="17"/>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
-      <c r="I169" s="17"/>
+      <c r="I169" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="J169" s="18"/>
       <c r="K169" s="18"/>
       <c r="L169" s="18"/>
@@ -4262,7 +4313,7 @@
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J170" s="18"/>
       <c r="K170" s="18"/>
@@ -4285,59 +4336,109 @@
       <c r="AB170" s="19"/>
     </row>
     <row r="171" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="28"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J171" s="29"/>
-      <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29"/>
-      <c r="O171" s="29"/>
-      <c r="P171" s="29"/>
-      <c r="Q171" s="29"/>
-      <c r="R171" s="29"/>
-      <c r="S171" s="29"/>
-      <c r="T171" s="29"/>
-      <c r="U171" s="29"/>
-      <c r="V171" s="29"/>
-      <c r="W171" s="29"/>
-      <c r="X171" s="29"/>
-      <c r="Y171" s="29"/>
-      <c r="Z171" s="29"/>
-      <c r="AA171" s="29"/>
-      <c r="AB171" s="30"/>
-    </row>
-    <row r="172" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D173" s="20"/>
-    </row>
-    <row r="174" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D174" s="20"/>
-    </row>
+      <c r="F171" s="17"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="18"/>
+      <c r="O171" s="18"/>
+      <c r="P171" s="18"/>
+      <c r="Q171" s="18"/>
+      <c r="R171" s="18"/>
+      <c r="S171" s="18"/>
+      <c r="T171" s="18"/>
+      <c r="U171" s="18"/>
+      <c r="V171" s="18"/>
+      <c r="W171" s="18"/>
+      <c r="X171" s="18"/>
+      <c r="Y171" s="18"/>
+      <c r="Z171" s="18"/>
+      <c r="AA171" s="18"/>
+      <c r="AB171" s="19"/>
+    </row>
+    <row r="172" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F172" s="17"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="18"/>
+      <c r="N172" s="18"/>
+      <c r="O172" s="18"/>
+      <c r="P172" s="18"/>
+      <c r="Q172" s="18"/>
+      <c r="R172" s="18"/>
+      <c r="S172" s="18"/>
+      <c r="T172" s="18"/>
+      <c r="U172" s="18"/>
+      <c r="V172" s="18"/>
+      <c r="W172" s="18"/>
+      <c r="X172" s="18"/>
+      <c r="Y172" s="18"/>
+      <c r="Z172" s="18"/>
+      <c r="AA172" s="18"/>
+      <c r="AB172" s="19"/>
+    </row>
+    <row r="173" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F173" s="28"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="29"/>
+      <c r="I173" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J173" s="29"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="29"/>
+      <c r="M173" s="29"/>
+      <c r="N173" s="29"/>
+      <c r="O173" s="29"/>
+      <c r="P173" s="29"/>
+      <c r="Q173" s="29"/>
+      <c r="R173" s="29"/>
+      <c r="S173" s="29"/>
+      <c r="T173" s="29"/>
+      <c r="U173" s="29"/>
+      <c r="V173" s="29"/>
+      <c r="W173" s="29"/>
+      <c r="X173" s="29"/>
+      <c r="Y173" s="29"/>
+      <c r="Z173" s="29"/>
+      <c r="AA173" s="29"/>
+      <c r="AB173" s="30"/>
+    </row>
+    <row r="174" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="175" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="20"/>
     </row>
-    <row r="176" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D176" s="20"/>
+    </row>
+    <row r="177" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D177" s="20"/>
+    </row>
+    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4755,6 +4856,8 @@
     <row r="607" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4773,9 +4876,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="25" max="34" man="1"/>
-    <brk id="70" max="34" man="1"/>
-    <brk id="146" max="34" man="1"/>
+    <brk id="27" max="34" man="1"/>
+    <brk id="72" max="34" man="1"/>
+    <brk id="148" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E874BA-25FA-4D3F-AE7C-F3DCD54D9903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3214182-6784-4E10-9039-E75C7808F2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -598,32 +598,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バッチの構成要素</t>
-    <rPh sb="4" eb="8">
-      <t>コウセイヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチを構成する各要素について、以下で説明する。</t>
-    <rPh sb="4" eb="6">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>構成要素</t>
     <rPh sb="0" eb="4">
       <t>コウセイヨウソ</t>
@@ -670,6 +644,31 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本バッチ処理方式を構成する各要素について、以下で説明する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3457,13 +3456,13 @@
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3496,14 +3495,14 @@
     </row>
     <row r="18" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3534,7 +3533,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -3815,7 +3814,7 @@
     </row>
     <row r="52" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3214182-6784-4E10-9039-E75C7808F2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77398FD1-6E7F-48EF-82B1-115E72D3CB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,38 +218,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>強制停止させられたバッチは、プロセス停止制御ハンドラによって異常終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、強制停止したバッチは異常終了となるため、トランザクションはロールバックされる。</t>
-    <rPh sb="3" eb="7">
-      <t>キョウセイテイシ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>イジョウシュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プログラムが暴走モードに陥ってプロセス停止制御ハンドラを通過できない場合は、最終手段としてプロセスを強制終了することになる。</t>
     <rPh sb="21" eb="23">
       <t>セイギョ</t>
@@ -269,17 +237,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>都度起動バッチでは、バッチの処理対象データを決定する処理を業務コンポーネントで行う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、バッチ処理によってはトランザクション終了時に対象データの処理状態を更新する</t>
-    <rPh sb="21" eb="23">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コミット間隔</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -419,10 +376,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バッチ終了時には、以下の終了コードをバッチプログラムから返却する。このコードは、都度起動バッチを起動した</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スクリプトからジョブスケジューラに返却することにより後続ジョブが実行されることを防止する目的でも使用する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -577,13 +530,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フラグがオンになるとバッチを強制停止させる。</t>
-  </si>
-  <si>
     <t>したがって、処理停止フラグをオンにするジョブ（都度起動バッチ停止ジョブ）を用意することで、</t>
-  </si>
-  <si>
-    <t>処理対象の入力リクエストがあってもループ処理を抜けてバッチを強制停止させられるようになる。</t>
   </si>
   <si>
     <t>プロセス停止制御ハンドラはデータベースに保存された処理停止フラグを監視しており、</t>
@@ -670,6 +617,61 @@
     <rPh sb="24" eb="26">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラグがオンになるとバッチプログラムを強制停止させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理対象の入力リクエストがあってもループ処理を抜けてバッチプログラムを強制停止させられるようになる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強制停止させられたバッチプログラムは、プロセス停止制御ハンドラによって異常終了する。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、強制停止したバッチプログラムは異常終了となるため、トランザクションはロールバックされる。</t>
+    <rPh sb="3" eb="7">
+      <t>キョウセイテイシ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都度起動バッチでは、バッチプログラムの処理対象データを決定する処理を業務コンポーネントで行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、バッチプログラムによってはトランザクション終了時に対象データの処理状態を更新する</t>
+    <rPh sb="24" eb="26">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチプログラム終了時には、以下の終了コードをバッチプログラムから返却する。このコードは、都度起動バッチを起動した</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3451,18 +3453,18 @@
         <v>4.1.2.1.</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3495,14 +3497,14 @@
     </row>
     <row r="18" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3533,7 +3535,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -3814,7 +3816,7 @@
     </row>
     <row r="52" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3830,7 +3832,7 @@
     <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
       <c r="F55" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3839,37 +3841,37 @@
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
       <c r="F57" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3878,13 +3880,13 @@
     <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
       <c r="F64" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3893,18 +3895,18 @@
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
       <c r="F67" s="4" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3919,27 +3921,27 @@
         <v>4.1.3.</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="4" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="4" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3990,32 +3992,32 @@
         <v>4.1.4.</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4025,7 +4027,7 @@
         <v>4.1.5.</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4034,17 +4036,17 @@
         <v>4.1.5.1.</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F129" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F130" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4054,12 +4056,12 @@
         <v>4.1.5.2.</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F133" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4069,12 +4071,12 @@
         <v>4.1.5.3.</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4084,7 +4086,7 @@
         <v>4.1.6.</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4093,7 +4095,7 @@
         <v>4.1.6.1.</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4103,12 +4105,12 @@
     </row>
     <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F142" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4118,23 +4120,23 @@
         <v>4.1.6.2.</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="15"/>
       <c r="F145" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F146" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F147" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4153,44 +4155,44 @@
         <v>4.1.7.1.</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F155" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F156" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F157" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F159" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4200,23 +4202,23 @@
         <v>4.1.7.2.</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F162" s="4" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F163" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F165" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4251,12 +4253,12 @@
     </row>
     <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G168" s="38"/>
       <c r="H168" s="38"/>
       <c r="I168" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J168" s="38"/>
       <c r="K168" s="38"/>
@@ -4280,12 +4282,12 @@
     </row>
     <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
       <c r="I169" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J169" s="18"/>
       <c r="K169" s="18"/>
@@ -4312,7 +4314,7 @@
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J170" s="18"/>
       <c r="K170" s="18"/>
@@ -4364,7 +4366,7 @@
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J172" s="18"/>
       <c r="K172" s="18"/>
@@ -4391,7 +4393,7 @@
       <c r="G173" s="29"/>
       <c r="H173" s="29"/>
       <c r="I173" s="28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J173" s="29"/>
       <c r="K173" s="29"/>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77398FD1-6E7F-48EF-82B1-115E72D3CB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABEF93E-E0AE-414E-8EE5-7989CCCB4BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchの都度起動バッチ実行制御基盤により実現される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理制御</t>
     <rPh sb="0" eb="4">
       <t>ショリセイギョ</t>
@@ -672,6 +668,16 @@
   </si>
   <si>
     <t>バッチプログラム終了時には、以下の終了コードをバッチプログラムから返却する。このコードは、都度起動バッチを起動した</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchのバッチアプリケーション実行制御基盤を用いた都度起動バッチにより実現される。</t>
+    <rPh sb="27" eb="28">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ツドキドウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3434,7 +3440,7 @@
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3444,7 +3450,7 @@
         <v>4.1.2.</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3453,25 +3459,25 @@
         <v>4.1.2.1.</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -3497,14 +3503,14 @@
     </row>
     <row r="18" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3535,7 +3541,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -3561,14 +3567,14 @@
     </row>
     <row r="20" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -3599,7 +3605,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -3630,7 +3636,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -3661,7 +3667,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
@@ -3687,14 +3693,14 @@
     </row>
     <row r="24" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="24"/>
       <c r="K24" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
@@ -3720,14 +3726,14 @@
     </row>
     <row r="25" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
       <c r="K25" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -3758,7 +3764,7 @@
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
       <c r="K26" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
@@ -3811,12 +3817,12 @@
     <row r="50" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3826,13 +3832,13 @@
         <v>4.1.2.2.</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
       <c r="F55" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3841,37 +3847,37 @@
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
       <c r="F57" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3880,13 +3886,13 @@
     <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
       <c r="F64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3895,23 +3901,23 @@
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
       <c r="F67" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3921,27 +3927,27 @@
         <v>4.1.3.</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3992,32 +3998,32 @@
         <v>4.1.4.</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4027,7 +4033,7 @@
         <v>4.1.5.</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4036,17 +4042,17 @@
         <v>4.1.5.1.</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F129" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F130" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4056,12 +4062,12 @@
         <v>4.1.5.2.</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F133" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4071,12 +4077,12 @@
         <v>4.1.5.3.</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4086,7 +4092,7 @@
         <v>4.1.6.</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4095,7 +4101,7 @@
         <v>4.1.6.1.</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4105,12 +4111,12 @@
     </row>
     <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F142" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4120,23 +4126,23 @@
         <v>4.1.6.2.</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="15"/>
       <c r="F145" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F146" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F147" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4155,44 +4161,44 @@
         <v>4.1.7.1.</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F155" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F156" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F157" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F159" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4202,23 +4208,23 @@
         <v>4.1.7.2.</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F162" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F163" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F165" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4229,7 +4235,7 @@
       <c r="G167" s="32"/>
       <c r="H167" s="32"/>
       <c r="I167" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J167" s="32"/>
       <c r="K167" s="32"/>
@@ -4253,12 +4259,12 @@
     </row>
     <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G168" s="38"/>
       <c r="H168" s="38"/>
       <c r="I168" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J168" s="38"/>
       <c r="K168" s="38"/>
@@ -4282,12 +4288,12 @@
     </row>
     <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
       <c r="I169" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J169" s="18"/>
       <c r="K169" s="18"/>
@@ -4314,7 +4320,7 @@
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J170" s="18"/>
       <c r="K170" s="18"/>
@@ -4366,7 +4372,7 @@
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J172" s="18"/>
       <c r="K172" s="18"/>
@@ -4393,7 +4399,7 @@
       <c r="G173" s="29"/>
       <c r="H173" s="29"/>
       <c r="I173" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J173" s="29"/>
       <c r="K173" s="29"/>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABEF93E-E0AE-414E-8EE5-7989CCCB4BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3D8246-AD61-49FE-A392-0A3B2B628EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,25 +1130,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>111597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5A1700-6EBC-486D-8B85-EA1F3256788E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="10829925"/>
+          <a:ext cx="6962775" cy="5540847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63367</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>230734</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1069" name="グループ化 1068">
+        <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992A199D-F998-42A8-ACB8-4D70275CAB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67002E6A-5585-454B-AFAB-9691EBC5F07B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,10 +1211,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="339592" y="4086225"/>
-          <a:ext cx="8718682" cy="2981325"/>
-          <a:chOff x="72892" y="3990975"/>
-          <a:chExt cx="8718682" cy="2981325"/>
+          <a:off x="230734" y="4086225"/>
+          <a:ext cx="9027566" cy="3086100"/>
+          <a:chOff x="230734" y="4086225"/>
+          <a:chExt cx="9027566" cy="3086100"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1175,8 +1230,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1504949" y="3990975"/>
-            <a:ext cx="7286625" cy="2981325"/>
+            <a:off x="1552575" y="4086225"/>
+            <a:ext cx="7705725" cy="3086100"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -1232,8 +1287,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3028951" y="4486275"/>
-            <a:ext cx="2647950" cy="2371725"/>
+            <a:off x="3554215" y="4486276"/>
+            <a:ext cx="3141860" cy="1600200"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -1297,8 +1352,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="72892" y="4438650"/>
-            <a:ext cx="1381125" cy="933450"/>
+            <a:off x="230734" y="4924425"/>
+            <a:ext cx="1380882" cy="933450"/>
             <a:chOff x="406267" y="4114800"/>
             <a:chExt cx="1381125" cy="933450"/>
           </a:xfrm>
@@ -1317,13 +1372,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -1360,9 +1415,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="9525" cmpd="sng">
               <a:noFill/>
             </a:ln>
@@ -1407,8 +1460,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1352550" y="4819650"/>
-            <a:ext cx="352425" cy="0"/>
+            <a:off x="1457325" y="5295900"/>
+            <a:ext cx="521977" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1432,50 +1485,12 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="直線コネクタ 31">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="グループ化 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00DFC78-7E40-4B8C-9D01-700CB2E411C1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1514475" y="5743575"/>
-            <a:ext cx="7248525" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:prstDash val="dash"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="64" name="グループ化 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65AB77E-1209-4FB0-A0E6-8B79379F685D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6756D96E-9FD3-418B-A5EE-688911AD4DF1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1483,18 +1498,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3162302" y="5095874"/>
-            <a:ext cx="1142998" cy="1657351"/>
-            <a:chOff x="3952877" y="5114924"/>
-            <a:chExt cx="1142998" cy="1657351"/>
+            <a:off x="1986641" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="116" name="四角形: 角を丸くする 115">
+            <xdr:cNvPr id="193" name="四角形: 角を丸くする 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C42D039-A99C-46D7-B4CD-D4F19DD4CE9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B737317A-F6AE-4AD1-9A6B-A22E39F1171C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,11 +1517,13 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4114800" y="5114924"/>
-              <a:ext cx="809626" cy="371475"/>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
-              <a:avLst/>
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
             </a:prstGeom>
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -1531,17 +1548,17 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
                 <a:t>ジョブ</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>B1</a:t>
+                <a:t>A1</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
@@ -1549,10 +1566,10 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="123" name="グループ化 122">
+            <xdr:cNvPr id="194" name="グループ化 193">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AFE852-1589-4614-9C4F-856B71695E01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A639B6-466E-4DB4-B56F-99B23287882A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1560,18 +1577,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="124" name="正方形/長方形 123">
+              <xdr:cNvPr id="196" name="正方形/長方形 195">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C860771E-168D-4C9B-9F9E-06A881F542C9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34E0016-791B-4E87-A630-369935A8F054}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1579,8 +1596,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1610,7 +1627,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
                   <a:t>シェルスクリプト</a:t>
                 </a:r>
               </a:p>
@@ -1618,10 +1635,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="125" name="正方形/長方形 124">
+              <xdr:cNvPr id="197" name="正方形/長方形 196">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D73BEB8-B995-4A8D-A00B-8E6242E40EF9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6BF3D9-4261-4183-B209-BA89FF898080}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1629,8 +1646,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1657,1102 +1674,18 @@
               <a:p>
                 <a:pPr algn="ctr"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
                   <a:t>プログラム</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>B1</a:t>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>A1</a:t>
                 </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EA0E81-8AEC-40C8-81EB-2ACD24C7B4A0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="116" idx="2"/>
-              <a:endCxn id="124" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5486399"/>
-              <a:ext cx="4763" cy="552451"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="178" name="直線矢印コネクタ 177">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A5F16A-FF49-4825-A30A-1B8FF3EBC1D1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2609850" y="4819650"/>
-            <a:ext cx="428625" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="3">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="180" name="直線矢印コネクタ 179">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82951869-23BA-4FAD-A75D-08FD453BDD63}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="116" idx="3"/>
-            <a:endCxn id="185" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4133851" y="5281612"/>
-            <a:ext cx="447674" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="3">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="184" name="グループ化 183">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BF4E49-060D-4624-9A24-919AD4C4FB3A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4419602" y="5095874"/>
-            <a:ext cx="1142998" cy="1657351"/>
-            <a:chOff x="3952877" y="5114924"/>
-            <a:chExt cx="1142998" cy="1657351"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="四角形: 角を丸くする 184">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98500DB1-26F6-4863-96AA-D43BDDAE5009}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="5114924"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>B2</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="186" name="グループ化 185">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A5A6BE-5182-4ACE-BCF1-CD88C522C518}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="188" name="正方形/長方形 187">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EE8EB2-172E-48D8-9C72-CBC7BF17E2BC}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="189" name="正方形/長方形 188">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191153FD-5EC2-4C74-AAE1-1F8459034406}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>B2</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="187" name="直線矢印コネクタ 186">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B726C1D6-0955-488F-90E7-624C89DF2898}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="185" idx="2"/>
-              <a:endCxn id="188" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5486399"/>
-              <a:ext cx="4763" cy="552451"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="192" name="グループ化 191">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206ABC52-3D3F-488E-9836-5A6EF011A62D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1600202" y="4629149"/>
-            <a:ext cx="1142998" cy="2124076"/>
-            <a:chOff x="3952877" y="4648199"/>
-            <a:chExt cx="1142998" cy="2124076"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="193" name="四角形: 角を丸くする 192">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B737317A-F6AE-4AD1-9A6B-A22E39F1171C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="4648199"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>A1</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="194" name="グループ化 193">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A639B6-466E-4DB4-B56F-99B23287882A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="196" name="正方形/長方形 195">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34E0016-791B-4E87-A630-369935A8F054}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="197" name="正方形/長方形 196">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6BF3D9-4261-4183-B209-BA89FF898080}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>A1</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="195" name="直線矢印コネクタ 194">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A15F8D6-B366-43F1-AAAA-B10FC590EFFA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="193" idx="2"/>
-              <a:endCxn id="196" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5019674"/>
-              <a:ext cx="4763" cy="1019176"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="199" name="グループ化 198">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6E7DEA-86C7-4090-B977-6476B48E59DA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6181727" y="5095874"/>
-            <a:ext cx="1142998" cy="1657351"/>
-            <a:chOff x="3952877" y="5114924"/>
-            <a:chExt cx="1142998" cy="1657351"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="200" name="四角形: 角を丸くする 199">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E068F8DA-7182-458F-95DA-5F6C6BFDE159}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="5114924"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>A4</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="201" name="グループ化 200">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2F0B79-ECB9-40A2-8CF5-2582866C8D6C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="203" name="正方形/長方形 202">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621DC23E-878D-430D-BF82-16E83FFC9E31}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="204" name="正方形/長方形 203">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A941B4D-D9DA-41BA-8179-3F6843BAD5FF}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>A4</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421FFE13-C58F-4BAC-90C6-5CD31B01AE4F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="200" idx="2"/>
-              <a:endCxn id="203" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5486399"/>
-              <a:ext cx="4763" cy="552451"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="205" name="グループ化 204">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5317B8E-1286-4974-AE88-93AB48D1DA25}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="7562852" y="4638674"/>
-            <a:ext cx="1142998" cy="2114551"/>
-            <a:chOff x="3952877" y="4657724"/>
-            <a:chExt cx="1142998" cy="2114551"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206" name="四角形: 角を丸くする 205">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA645851-BD6F-460A-B0EE-24FA1497902A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="4657724"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>A3</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="207" name="グループ化 206">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989177B2-247D-4C8D-ADFC-A94DC65730EA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="209" name="正方形/長方形 208">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BC8F4D-C973-46B6-9A25-A6EBBE19F381}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="210" name="正方形/長方形 209">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C5581E-8C28-47D3-886B-8E5B50AC2E70}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>A3</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62248DA2-33C6-43A5-9535-EAA490F79C3B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="206" idx="2"/>
-              <a:endCxn id="209" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5029199"/>
-              <a:ext cx="4763" cy="1009651"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
@@ -2767,8 +1700,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5686425" y="4819650"/>
-            <a:ext cx="2028825" cy="0"/>
+            <a:off x="7200789" y="5295900"/>
+            <a:ext cx="676386" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2805,8 +1738,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5857875" y="4610101"/>
-            <a:ext cx="247650" cy="400050"/>
+            <a:off x="6923503" y="5095876"/>
+            <a:ext cx="247324" cy="400050"/>
           </a:xfrm>
           <a:prstGeom prst="diamond">
             <a:avLst/>
@@ -2847,13 +1780,13 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="1064" idx="2"/>
-            <a:endCxn id="200" idx="1"/>
+            <a:endCxn id="50" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000" flipH="1">
-            <a:off x="6026945" y="4964906"/>
-            <a:ext cx="271461" cy="361950"/>
+            <a:off x="6700510" y="5842581"/>
+            <a:ext cx="1023936" cy="330626"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -2877,62 +1810,929 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="44" name="グループ化 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CBC5DA-A13C-46F6-982F-9BFA66E98009}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7901666" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6714354E-EA8A-4C5F-A2ED-C51EEBB6F082}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>A3</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="46" name="グループ化 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D28B2D-8C11-4E37-ADD3-22688600257C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="47" name="正方形/長方形 46">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7D9ED5-E99D-4BC6-8A97-EAE0E512F5A3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="48" name="正方形/長方形 47">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E953DD5-441C-414F-8368-B1A114CD7914}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>A3</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7260A180-8FDB-449D-AE63-23F8CAEE4726}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7377791" y="5991224"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="四角形: 角を丸くする 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B3BD91-7E2E-4943-A9FB-55A23FCC58BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>A4</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="51" name="グループ化 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC6780D-DA77-4972-A90F-E3B70CF13296}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="52" name="正方形/長方形 51">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB9F7C4-DF09-4A15-9DE4-2074137D0D75}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="53" name="正方形/長方形 52">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3CBE65-5959-4CA0-A55C-97643CC111D3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>A4</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="グループ化 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954A067C-5467-481E-A63C-8B8C04DDC3B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3691616" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="四角形: 角を丸くする 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8310C426-2DAF-4EC1-8474-EE4961D68FE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>B1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="56" name="グループ化 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF8A4C-F684-49F7-B605-0183354CD74C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="57" name="正方形/長方形 56">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714CF296-6884-4AE1-B4D9-0F96AE848C2C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="58" name="正方形/長方形 57">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCABB57-21A7-4AAE-A036-5D0320E09523}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>B1</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="59" name="グループ化 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DD7B76-9B98-48A0-813C-845D26FA12B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5310866" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="四角形: 角を丸くする 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C7FB3A-0090-4CE6-9DE6-2A6F2A943E59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>B2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="61" name="グループ化 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C37D8B4-81FE-40E2-881A-1EB717D8E39B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="62" name="正方形/長方形 61">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E2C8B9-342C-44FB-AD94-3BBC48A30773}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="63" name="正方形/長方形 62">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6A3676-F29B-41D3-9282-C7F474657F64}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>B2</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA4F7FF-397B-4E93-A5E0-5F175163CC45}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3283539" y="5295900"/>
+            <a:ext cx="353113" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8429C03-4DCF-4417-91B4-CE333FBB65C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4950414" y="5295900"/>
+            <a:ext cx="353113" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE464C86-1696-42A0-817B-C4B7A96D0F90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6569664" y="5295900"/>
+            <a:ext cx="353113" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>111597</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5A1700-6EBC-486D-8B85-EA1F3256788E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209675" y="10829925"/>
-          <a:ext cx="6962775" cy="5540847"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3D8246-AD61-49FE-A392-0A3B2B628EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F82EDA-C9F0-44FE-A9F7-E00DA367ABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.1.都度起動バッチ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$174</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$180</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$175</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -552,10 +552,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブスケジューラがシェルスクリプトを起動することで、紐付いたJavaバッチプログラムが起動される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジョブの実行を制御するソフトウェアである。</t>
     <rPh sb="4" eb="6">
       <t>ジッコウ</t>
@@ -678,6 +674,17 @@
     <rPh sb="30" eb="34">
       <t>ツドキドウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブスケジューラがジョブネットを起動することでジョブが実行され、紐付いたシェルスクリプト、</t>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そしてJavaバッチプログラムが起動される。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1134,13 +1141,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>111597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3062,7 +3069,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ611"/>
+  <dimension ref="A1:AJ612"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3240,7 +3247,7 @@
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3264,7 +3271,7 @@
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3310,7 +3317,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3341,7 +3348,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -3622,135 +3629,139 @@
     </row>
     <row r="52" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="15" t="str">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G53" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="15" t="str">
         <f>$D$13&amp;"2."</f>
         <v>4.1.2.2.</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="15"/>
-      <c r="F55" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
+      <c r="F56" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
-      <c r="F57" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
+      <c r="F63" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
-      <c r="F64" s="4" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
+      <c r="F66" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
-      <c r="F67" s="4" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="15"/>
       <c r="F68" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F70" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="15" t="str">
+    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>4.1.3.</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="4" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3785,342 +3796,316 @@
     <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D120" s="15" t="str">
+    <row r="113" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.1.4.</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="4" t="s">
+    <row r="122" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E122" s="4" t="s">
+    <row r="123" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E123" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" s="4" t="s">
+    <row r="124" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="4" t="s">
+    <row r="125" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E125" s="4" t="s">
+    <row r="126" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E126" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D127" s="15" t="str">
+    <row r="127" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>4.1.5.</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="15" t="str">
-        <f>$D$127&amp;"1."</f>
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="15" t="str">
+        <f>$D$128&amp;"1."</f>
         <v>4.1.5.1.</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F129" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F129" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F130" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E132" s="15" t="str">
-        <f>$D$127&amp;"2."</f>
+    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="15" t="str">
+        <f>$D$128&amp;"2."</f>
         <v>4.1.5.2.</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F133" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F133" s="4" t="s">
+    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="15" t="str">
-        <f>$D$127&amp;"3."</f>
+    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E136" s="15" t="str">
+        <f>$D$128&amp;"3."</f>
         <v>4.1.5.3.</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F136" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F136" s="4" t="s">
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D138" s="15" t="str">
+    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>4.1.6.</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="15" t="str">
-        <f>$D$138&amp;"1."</f>
+    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="15" t="str">
+        <f>$D$139&amp;"1."</f>
         <v>4.1.6.1.</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F140" s="4" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F140" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F141" s="4" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F142" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="15" t="str">
-        <f>$D$138&amp;"2."</f>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="15" t="str">
+        <f>$D$139&amp;"2."</f>
         <v>4.1.6.2.</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F145" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="15"/>
-      <c r="F145" s="4" t="s">
+    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="15"/>
+      <c r="F146" s="4" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F146" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F147" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="15" t="str">
+    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="15" t="str">
         <f>$C$7&amp;"7."</f>
         <v>4.1.7.</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E150" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="15" t="str">
-        <f>$D$149&amp;"1."</f>
+    <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E151" s="15" t="str">
+        <f>$D$150&amp;"1."</f>
         <v>4.1.7.1.</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F151" s="4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F154" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
+    <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F156" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F157" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F158" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F159" s="4" t="s">
+    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="15" t="str">
-        <f>$D$149&amp;"2."</f>
+    <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E162" s="15" t="str">
+        <f>$D$150&amp;"2."</f>
         <v>4.1.7.2.</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F162" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F163" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F165" s="4" t="s">
+    <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F166" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="31" t="s">
+    <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F168" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="32"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="31" t="s">
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J167" s="32"/>
-      <c r="K167" s="32"/>
-      <c r="L167" s="32"/>
-      <c r="M167" s="32"/>
-      <c r="N167" s="32"/>
-      <c r="O167" s="32"/>
-      <c r="P167" s="32"/>
-      <c r="Q167" s="32"/>
-      <c r="R167" s="32"/>
-      <c r="S167" s="32"/>
-      <c r="T167" s="32"/>
-      <c r="U167" s="32"/>
-      <c r="V167" s="32"/>
-      <c r="W167" s="32"/>
-      <c r="X167" s="32"/>
-      <c r="Y167" s="32"/>
-      <c r="Z167" s="32"/>
-      <c r="AA167" s="32"/>
-      <c r="AB167" s="41"/>
-    </row>
-    <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F168" s="37" t="s">
+      <c r="J168" s="32"/>
+      <c r="K168" s="32"/>
+      <c r="L168" s="32"/>
+      <c r="M168" s="32"/>
+      <c r="N168" s="32"/>
+      <c r="O168" s="32"/>
+      <c r="P168" s="32"/>
+      <c r="Q168" s="32"/>
+      <c r="R168" s="32"/>
+      <c r="S168" s="32"/>
+      <c r="T168" s="32"/>
+      <c r="U168" s="32"/>
+      <c r="V168" s="32"/>
+      <c r="W168" s="32"/>
+      <c r="X168" s="32"/>
+      <c r="Y168" s="32"/>
+      <c r="Z168" s="32"/>
+      <c r="AA168" s="32"/>
+      <c r="AB168" s="41"/>
+    </row>
+    <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G168" s="38"/>
-      <c r="H168" s="38"/>
-      <c r="I168" s="39" t="s">
+      <c r="G169" s="38"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J168" s="38"/>
-      <c r="K168" s="38"/>
-      <c r="L168" s="38"/>
-      <c r="M168" s="38"/>
-      <c r="N168" s="38"/>
-      <c r="O168" s="38"/>
-      <c r="P168" s="38"/>
-      <c r="Q168" s="38"/>
-      <c r="R168" s="38"/>
-      <c r="S168" s="38"/>
-      <c r="T168" s="38"/>
-      <c r="U168" s="38"/>
-      <c r="V168" s="38"/>
-      <c r="W168" s="38"/>
-      <c r="X168" s="38"/>
-      <c r="Y168" s="38"/>
-      <c r="Z168" s="38"/>
-      <c r="AA168" s="38"/>
-      <c r="AB168" s="40"/>
-    </row>
-    <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="36" t="s">
+      <c r="J169" s="38"/>
+      <c r="K169" s="38"/>
+      <c r="L169" s="38"/>
+      <c r="M169" s="38"/>
+      <c r="N169" s="38"/>
+      <c r="O169" s="38"/>
+      <c r="P169" s="38"/>
+      <c r="Q169" s="38"/>
+      <c r="R169" s="38"/>
+      <c r="S169" s="38"/>
+      <c r="T169" s="38"/>
+      <c r="U169" s="38"/>
+      <c r="V169" s="38"/>
+      <c r="W169" s="38"/>
+      <c r="X169" s="38"/>
+      <c r="Y169" s="38"/>
+      <c r="Z169" s="38"/>
+      <c r="AA169" s="38"/>
+      <c r="AB169" s="40"/>
+    </row>
+    <row r="170" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F170" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
-      <c r="P169" s="18"/>
-      <c r="Q169" s="18"/>
-      <c r="R169" s="18"/>
-      <c r="S169" s="18"/>
-      <c r="T169" s="18"/>
-      <c r="U169" s="18"/>
-      <c r="V169" s="18"/>
-      <c r="W169" s="18"/>
-      <c r="X169" s="18"/>
-      <c r="Y169" s="18"/>
-      <c r="Z169" s="18"/>
-      <c r="AA169" s="18"/>
-      <c r="AB169" s="19"/>
-    </row>
-    <row r="170" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F170" s="17"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J170" s="18"/>
       <c r="K170" s="18"/>
@@ -4146,7 +4131,9 @@
       <c r="F171" s="17"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
-      <c r="I171" s="17"/>
+      <c r="I171" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="J171" s="18"/>
       <c r="K171" s="18"/>
       <c r="L171" s="18"/>
@@ -4171,9 +4158,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
-      <c r="I172" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="I172" s="17"/>
       <c r="J172" s="18"/>
       <c r="K172" s="18"/>
       <c r="L172" s="18"/>
@@ -4195,46 +4180,72 @@
       <c r="AB172" s="19"/>
     </row>
     <row r="173" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F173" s="28"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="29"/>
-      <c r="I173" s="28" t="s">
+      <c r="F173" s="17"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
+      <c r="O173" s="18"/>
+      <c r="P173" s="18"/>
+      <c r="Q173" s="18"/>
+      <c r="R173" s="18"/>
+      <c r="S173" s="18"/>
+      <c r="T173" s="18"/>
+      <c r="U173" s="18"/>
+      <c r="V173" s="18"/>
+      <c r="W173" s="18"/>
+      <c r="X173" s="18"/>
+      <c r="Y173" s="18"/>
+      <c r="Z173" s="18"/>
+      <c r="AA173" s="18"/>
+      <c r="AB173" s="19"/>
+    </row>
+    <row r="174" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F174" s="28"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="29"/>
+      <c r="I174" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="J173" s="29"/>
-      <c r="K173" s="29"/>
-      <c r="L173" s="29"/>
-      <c r="M173" s="29"/>
-      <c r="N173" s="29"/>
-      <c r="O173" s="29"/>
-      <c r="P173" s="29"/>
-      <c r="Q173" s="29"/>
-      <c r="R173" s="29"/>
-      <c r="S173" s="29"/>
-      <c r="T173" s="29"/>
-      <c r="U173" s="29"/>
-      <c r="V173" s="29"/>
-      <c r="W173" s="29"/>
-      <c r="X173" s="29"/>
-      <c r="Y173" s="29"/>
-      <c r="Z173" s="29"/>
-      <c r="AA173" s="29"/>
-      <c r="AB173" s="30"/>
-    </row>
-    <row r="174" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D175" s="20"/>
-    </row>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="29"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="29"/>
+      <c r="O174" s="29"/>
+      <c r="P174" s="29"/>
+      <c r="Q174" s="29"/>
+      <c r="R174" s="29"/>
+      <c r="S174" s="29"/>
+      <c r="T174" s="29"/>
+      <c r="U174" s="29"/>
+      <c r="V174" s="29"/>
+      <c r="W174" s="29"/>
+      <c r="X174" s="29"/>
+      <c r="Y174" s="29"/>
+      <c r="Z174" s="29"/>
+      <c r="AA174" s="29"/>
+      <c r="AB174" s="30"/>
+    </row>
+    <row r="175" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D176" s="20"/>
     </row>
     <row r="177" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D177" s="20"/>
     </row>
-    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D178" s="20"/>
+    </row>
     <row r="179" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="180" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="182" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="183" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="184" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4665,6 +4676,7 @@
     <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4684,8 +4696,8 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="27" max="34" man="1"/>
-    <brk id="72" max="34" man="1"/>
-    <brk id="148" max="34" man="1"/>
+    <brk id="73" max="34" man="1"/>
+    <brk id="149" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F82EDA-C9F0-44FE-A9F7-E00DA367ABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385877B4-9705-40B1-AEE9-9EE73B0FA3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.1.都度起動バッチ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$175</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$181</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$202</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※本システム共通となるエラー発生時の処理は、【2.5.2. エラー発生時の共通方針】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー発生時の終了コード</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -685,6 +681,145 @@
   </si>
   <si>
     <t>そしてJavaバッチプログラムが起動される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、エラーの種類を下記の２種類に分類する。</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務エラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このエラーは、予期可能なエラーであり、多くは業務処理の中で行う精査処理で発生する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査処理の詳細は、【7.1入力値精査】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムエラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前に予期できないエラーの事を指す。例えば、データベース等のミドルウェアに起因するエラーやプログラムバグが該当する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の共通方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーハンドリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の制御は、エラーを処理するハンドラで共通的に行う。このため、個別プログラムでのエラーハンドリングは行わない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、本来システムエラーとなるデータベースの重複エラーを業務エラーに付け替える必要がある場合（業務精査として重複エラーを</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する場合）や、業務エラーをトリガーとして業務処理を行う必要が有る場合はこの限りではない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションのロールバック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務データが不正な状態（データの不整合等）となることを防止する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、トランザクションのロールバック処理は、透過的トランザクション機能(実行制御基盤)で行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、個別プログラムでのトランザクション制御は必要ない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
+  </si>
+  <si>
+    <t>必要なログ出力は共通処理の中で行うため、個別プログラムでログ出力を実装する必要はない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値（入力したDBデータやファイル等）として不正な値を受け取った場合のエラー。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時には現在のトランザクションをロールバックし、更新途中の内容は破棄する。これにより、</t>
+    <rPh sb="30" eb="32">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力内容の詳細は「7.13.ログ」を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -915,7 +1050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1176,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3069,7 +3207,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ612"/>
+  <dimension ref="A1:AJ639"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3085,43 +3223,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="51"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3130,43 +3268,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="60"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3175,39 +3313,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="63"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3247,7 +3385,7 @@
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3266,18 +3404,18 @@
         <v>4.1.2.1.</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3310,14 +3448,14 @@
     </row>
     <row r="18" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3348,7 +3486,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -3629,12 +3767,12 @@
     </row>
     <row r="52" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G53" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3650,7 +3788,7 @@
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
       <c r="F56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3659,37 +3797,37 @@
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
       <c r="F63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3698,13 +3836,13 @@
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
       <c r="F66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3713,12 +3851,12 @@
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
       <c r="F68" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F69" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3749,12 +3887,12 @@
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,7 +4070,7 @@
       </c>
     </row>
     <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="15" t="str">
         <f>$D$139&amp;"2."</f>
         <v>4.1.6.2.</v>
@@ -3941,24 +4079,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="15"/>
       <c r="F146" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F148" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="15" t="str">
         <f>$C$7&amp;"7."</f>
         <v>4.1.7.</v>
@@ -3967,312 +4105,423 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="15"/>
       <c r="E151" s="15" t="str">
         <f>$D$150&amp;"1."</f>
         <v>4.1.7.1.</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F156" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F157" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F158" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F154" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G155" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G156" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G157" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G160" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="15" t="str">
         <f>$D$150&amp;"2."</f>
         <v>4.1.7.2.</v>
       </c>
       <c r="F162" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="42" t="str">
+        <f>$E$162&amp;"1."</f>
+        <v>4.1.7.2.1.</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G165" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G166" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G167" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="42" t="str">
+        <f>$E$162&amp;"2."</f>
+        <v>4.1.7.2.2.</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G170" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G171" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G172" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G173" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F175" s="42" t="str">
+        <f>$E$162&amp;"3."</f>
+        <v>4.1.7.2.3.</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G176" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G177" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G178" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E180" s="15" t="str">
+        <f>$D$150&amp;"3."</f>
+        <v>4.1.7.3.</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F181" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F183" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F185" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F186" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F187" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E189" s="15" t="str">
+        <f>$D$150&amp;"4."</f>
+        <v>4.1.7.4.</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F190" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F191" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F163" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F164" s="4" t="s">
+    <row r="192" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F193" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="4" t="s">
+    <row r="194" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F195" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J195" s="32"/>
+      <c r="K195" s="32"/>
+      <c r="L195" s="32"/>
+      <c r="M195" s="32"/>
+      <c r="N195" s="32"/>
+      <c r="O195" s="32"/>
+      <c r="P195" s="32"/>
+      <c r="Q195" s="32"/>
+      <c r="R195" s="32"/>
+      <c r="S195" s="32"/>
+      <c r="T195" s="32"/>
+      <c r="U195" s="32"/>
+      <c r="V195" s="32"/>
+      <c r="W195" s="32"/>
+      <c r="X195" s="32"/>
+      <c r="Y195" s="32"/>
+      <c r="Z195" s="32"/>
+      <c r="AA195" s="32"/>
+      <c r="AB195" s="41"/>
+    </row>
+    <row r="196" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F196" s="37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F168" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" s="32"/>
-      <c r="H168" s="32"/>
-      <c r="I168" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J168" s="32"/>
-      <c r="K168" s="32"/>
-      <c r="L168" s="32"/>
-      <c r="M168" s="32"/>
-      <c r="N168" s="32"/>
-      <c r="O168" s="32"/>
-      <c r="P168" s="32"/>
-      <c r="Q168" s="32"/>
-      <c r="R168" s="32"/>
-      <c r="S168" s="32"/>
-      <c r="T168" s="32"/>
-      <c r="U168" s="32"/>
-      <c r="V168" s="32"/>
-      <c r="W168" s="32"/>
-      <c r="X168" s="32"/>
-      <c r="Y168" s="32"/>
-      <c r="Z168" s="32"/>
-      <c r="AA168" s="32"/>
-      <c r="AB168" s="41"/>
-    </row>
-    <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="37" t="s">
+      <c r="G196" s="38"/>
+      <c r="H196" s="38"/>
+      <c r="I196" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J196" s="38"/>
+      <c r="K196" s="38"/>
+      <c r="L196" s="38"/>
+      <c r="M196" s="38"/>
+      <c r="N196" s="38"/>
+      <c r="O196" s="38"/>
+      <c r="P196" s="38"/>
+      <c r="Q196" s="38"/>
+      <c r="R196" s="38"/>
+      <c r="S196" s="38"/>
+      <c r="T196" s="38"/>
+      <c r="U196" s="38"/>
+      <c r="V196" s="38"/>
+      <c r="W196" s="38"/>
+      <c r="X196" s="38"/>
+      <c r="Y196" s="38"/>
+      <c r="Z196" s="38"/>
+      <c r="AA196" s="38"/>
+      <c r="AB196" s="40"/>
+    </row>
+    <row r="197" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F197" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G169" s="38"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="39" t="s">
+      <c r="G197" s="18"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J197" s="18"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="18"/>
+      <c r="M197" s="18"/>
+      <c r="N197" s="18"/>
+      <c r="O197" s="18"/>
+      <c r="P197" s="18"/>
+      <c r="Q197" s="18"/>
+      <c r="R197" s="18"/>
+      <c r="S197" s="18"/>
+      <c r="T197" s="18"/>
+      <c r="U197" s="18"/>
+      <c r="V197" s="18"/>
+      <c r="W197" s="18"/>
+      <c r="X197" s="18"/>
+      <c r="Y197" s="18"/>
+      <c r="Z197" s="18"/>
+      <c r="AA197" s="18"/>
+      <c r="AB197" s="19"/>
+    </row>
+    <row r="198" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F198" s="17"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
+      <c r="O198" s="18"/>
+      <c r="P198" s="18"/>
+      <c r="Q198" s="18"/>
+      <c r="R198" s="18"/>
+      <c r="S198" s="18"/>
+      <c r="T198" s="18"/>
+      <c r="U198" s="18"/>
+      <c r="V198" s="18"/>
+      <c r="W198" s="18"/>
+      <c r="X198" s="18"/>
+      <c r="Y198" s="18"/>
+      <c r="Z198" s="18"/>
+      <c r="AA198" s="18"/>
+      <c r="AB198" s="19"/>
+    </row>
+    <row r="199" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F199" s="17"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
+      <c r="O199" s="18"/>
+      <c r="P199" s="18"/>
+      <c r="Q199" s="18"/>
+      <c r="R199" s="18"/>
+      <c r="S199" s="18"/>
+      <c r="T199" s="18"/>
+      <c r="U199" s="18"/>
+      <c r="V199" s="18"/>
+      <c r="W199" s="18"/>
+      <c r="X199" s="18"/>
+      <c r="Y199" s="18"/>
+      <c r="Z199" s="18"/>
+      <c r="AA199" s="18"/>
+      <c r="AB199" s="19"/>
+    </row>
+    <row r="200" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F200" s="17"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J169" s="38"/>
-      <c r="K169" s="38"/>
-      <c r="L169" s="38"/>
-      <c r="M169" s="38"/>
-      <c r="N169" s="38"/>
-      <c r="O169" s="38"/>
-      <c r="P169" s="38"/>
-      <c r="Q169" s="38"/>
-      <c r="R169" s="38"/>
-      <c r="S169" s="38"/>
-      <c r="T169" s="38"/>
-      <c r="U169" s="38"/>
-      <c r="V169" s="38"/>
-      <c r="W169" s="38"/>
-      <c r="X169" s="38"/>
-      <c r="Y169" s="38"/>
-      <c r="Z169" s="38"/>
-      <c r="AA169" s="38"/>
-      <c r="AB169" s="40"/>
-    </row>
-    <row r="170" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F170" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="18"/>
-      <c r="P170" s="18"/>
-      <c r="Q170" s="18"/>
-      <c r="R170" s="18"/>
-      <c r="S170" s="18"/>
-      <c r="T170" s="18"/>
-      <c r="U170" s="18"/>
-      <c r="V170" s="18"/>
-      <c r="W170" s="18"/>
-      <c r="X170" s="18"/>
-      <c r="Y170" s="18"/>
-      <c r="Z170" s="18"/>
-      <c r="AA170" s="18"/>
-      <c r="AB170" s="19"/>
-    </row>
-    <row r="171" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="17"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="18"/>
-      <c r="P171" s="18"/>
-      <c r="Q171" s="18"/>
-      <c r="R171" s="18"/>
-      <c r="S171" s="18"/>
-      <c r="T171" s="18"/>
-      <c r="U171" s="18"/>
-      <c r="V171" s="18"/>
-      <c r="W171" s="18"/>
-      <c r="X171" s="18"/>
-      <c r="Y171" s="18"/>
-      <c r="Z171" s="18"/>
-      <c r="AA171" s="18"/>
-      <c r="AB171" s="19"/>
-    </row>
-    <row r="172" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F172" s="17"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="18"/>
-      <c r="P172" s="18"/>
-      <c r="Q172" s="18"/>
-      <c r="R172" s="18"/>
-      <c r="S172" s="18"/>
-      <c r="T172" s="18"/>
-      <c r="U172" s="18"/>
-      <c r="V172" s="18"/>
-      <c r="W172" s="18"/>
-      <c r="X172" s="18"/>
-      <c r="Y172" s="18"/>
-      <c r="Z172" s="18"/>
-      <c r="AA172" s="18"/>
-      <c r="AB172" s="19"/>
-    </row>
-    <row r="173" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F173" s="17"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="17" t="s">
+      <c r="J200" s="18"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
+      <c r="O200" s="18"/>
+      <c r="P200" s="18"/>
+      <c r="Q200" s="18"/>
+      <c r="R200" s="18"/>
+      <c r="S200" s="18"/>
+      <c r="T200" s="18"/>
+      <c r="U200" s="18"/>
+      <c r="V200" s="18"/>
+      <c r="W200" s="18"/>
+      <c r="X200" s="18"/>
+      <c r="Y200" s="18"/>
+      <c r="Z200" s="18"/>
+      <c r="AA200" s="18"/>
+      <c r="AB200" s="19"/>
+    </row>
+    <row r="201" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F201" s="28"/>
+      <c r="G201" s="29"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
-      <c r="P173" s="18"/>
-      <c r="Q173" s="18"/>
-      <c r="R173" s="18"/>
-      <c r="S173" s="18"/>
-      <c r="T173" s="18"/>
-      <c r="U173" s="18"/>
-      <c r="V173" s="18"/>
-      <c r="W173" s="18"/>
-      <c r="X173" s="18"/>
-      <c r="Y173" s="18"/>
-      <c r="Z173" s="18"/>
-      <c r="AA173" s="18"/>
-      <c r="AB173" s="19"/>
-    </row>
-    <row r="174" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F174" s="28"/>
-      <c r="G174" s="29"/>
-      <c r="H174" s="29"/>
-      <c r="I174" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J174" s="29"/>
-      <c r="K174" s="29"/>
-      <c r="L174" s="29"/>
-      <c r="M174" s="29"/>
-      <c r="N174" s="29"/>
-      <c r="O174" s="29"/>
-      <c r="P174" s="29"/>
-      <c r="Q174" s="29"/>
-      <c r="R174" s="29"/>
-      <c r="S174" s="29"/>
-      <c r="T174" s="29"/>
-      <c r="U174" s="29"/>
-      <c r="V174" s="29"/>
-      <c r="W174" s="29"/>
-      <c r="X174" s="29"/>
-      <c r="Y174" s="29"/>
-      <c r="Z174" s="29"/>
-      <c r="AA174" s="29"/>
-      <c r="AB174" s="30"/>
-    </row>
-    <row r="175" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D176" s="20"/>
-    </row>
-    <row r="177" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D177" s="20"/>
-    </row>
-    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="20"/>
-    </row>
-    <row r="179" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" spans="4:4" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="J201" s="29"/>
+      <c r="K201" s="29"/>
+      <c r="L201" s="29"/>
+      <c r="M201" s="29"/>
+      <c r="N201" s="29"/>
+      <c r="O201" s="29"/>
+      <c r="P201" s="29"/>
+      <c r="Q201" s="29"/>
+      <c r="R201" s="29"/>
+      <c r="S201" s="29"/>
+      <c r="T201" s="29"/>
+      <c r="U201" s="29"/>
+      <c r="V201" s="29"/>
+      <c r="W201" s="29"/>
+      <c r="X201" s="29"/>
+      <c r="Y201" s="29"/>
+      <c r="Z201" s="29"/>
+      <c r="AA201" s="29"/>
+      <c r="AB201" s="30"/>
+    </row>
+    <row r="202" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D203" s="20"/>
+    </row>
+    <row r="204" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D204" s="20"/>
+    </row>
+    <row r="205" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D205" s="20"/>
+    </row>
+    <row r="206" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4677,6 +4926,33 @@
     <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="612" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4694,10 +4970,11 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="27" max="34" man="1"/>
     <brk id="73" max="34" man="1"/>
     <brk id="149" max="34" man="1"/>
+    <brk id="179" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.1.都度起動バッチ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B4AC5-235F-48F7-BDED-3D10673871EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385877B4-9705-40B1-AEE9-9EE73B0FA3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.1.都度起動バッチ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$172</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.1.都度起動バッチ'!$A$1:$AI$202</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.1.都度起動バッチ'!$A$1:$AI$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -114,13 +114,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブ起動</t>
-    <rPh sb="3" eb="5">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー処理</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
@@ -149,10 +142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchの都度起動バッチ実行制御基盤により実現される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理制御</t>
     <rPh sb="0" eb="4">
       <t>ショリセイギョ</t>
@@ -160,17 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブの概念</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>概念</t>
-    <rPh sb="0" eb="2">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジョブネット</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -225,10 +203,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブ管理ツールがシェルスクリプトを起動することで、紐付いたJavaバッチプログラムが起動される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>強制停止</t>
     <rPh sb="0" eb="4">
       <t>キョウセイテイシ</t>
@@ -240,38 +214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>強制停止させられたバッチは、プロセス停止制御ハンドラによって異常終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、強制停止したバッチは異常終了となるため、トランザクションはロールバックされる。</t>
-    <rPh sb="3" eb="7">
-      <t>キョウセイテイシ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>イジョウシュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プログラムが暴走モードに陥ってプロセス停止制御ハンドラを通過できない場合は、最終手段としてプロセスを強制終了することになる。</t>
     <rPh sb="21" eb="23">
       <t>セイギョ</t>
@@ -291,17 +233,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>都度起動バッチでは、バッチの処理対象データを決定する処理を業務コンポーネントで行う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、バッチ処理によってはトランザクション終了時に対象データの処理状態を更新する</t>
-    <rPh sb="21" eb="23">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コミット間隔</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -433,15 +364,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※本システム共通となるエラー発生時の処理は、【2.5.2. エラー発生時の共通方針】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー発生時の終了コード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチ終了時には、以下の終了コードをバッチプログラムから返却する。このコードは、都度起動バッチを起動した</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -599,15 +522,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フラグがオンになるとバッチを強制停止させる。</t>
-  </si>
-  <si>
     <t>したがって、処理停止フラグをオンにするジョブ（都度起動バッチ停止ジョブ）を用意することで、</t>
   </si>
   <si>
-    <t>処理対象の入力リクエストがあってもループ処理を抜けてバッチを強制停止させられるようになる。</t>
-  </si>
-  <si>
     <t>プロセス停止制御ハンドラはデータベースに保存された処理停止フラグを監視しており、</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -617,6 +534,292 @@
   </si>
   <si>
     <t>ループごとに処理停止フラグを監視させることができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成要素</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブスケジューラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブの実行を制御するソフトウェアである。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブネットに設定された起動時刻などの条件に従って各ジョブの実行を制御する。</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キドウジコク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本バッチ処理方式を構成する各要素について、以下で説明する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラグがオンになるとバッチプログラムを強制停止させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理対象の入力リクエストがあってもループ処理を抜けてバッチプログラムを強制停止させられるようになる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強制停止させられたバッチプログラムは、プロセス停止制御ハンドラによって異常終了する。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、強制停止したバッチプログラムは異常終了となるため、トランザクションはロールバックされる。</t>
+    <rPh sb="3" eb="7">
+      <t>キョウセイテイシ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都度起動バッチでは、バッチプログラムの処理対象データを決定する処理を業務コンポーネントで行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、バッチプログラムによってはトランザクション終了時に対象データの処理状態を更新する</t>
+    <rPh sb="24" eb="26">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチプログラム終了時には、以下の終了コードをバッチプログラムから返却する。このコードは、都度起動バッチを起動した</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchのバッチアプリケーション実行制御基盤を用いた都度起動バッチにより実現される。</t>
+    <rPh sb="27" eb="28">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ツドキドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブスケジューラがジョブネットを起動することでジョブが実行され、紐付いたシェルスクリプト、</t>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そしてJavaバッチプログラムが起動される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、エラーの種類を下記の２種類に分類する。</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務エラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このエラーは、予期可能なエラーであり、多くは業務処理の中で行う精査処理で発生する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査処理の詳細は、【7.1入力値精査】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムエラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前に予期できないエラーの事を指す。例えば、データベース等のミドルウェアに起因するエラーやプログラムバグが該当する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の共通方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーハンドリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の制御は、エラーを処理するハンドラで共通的に行う。このため、個別プログラムでのエラーハンドリングは行わない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、本来システムエラーとなるデータベースの重複エラーを業務エラーに付け替える必要がある場合（業務精査として重複エラーを</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する場合）や、業務エラーをトリガーとして業務処理を行う必要が有る場合はこの限りではない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションのロールバック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務データが不正な状態（データの不整合等）となることを防止する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、トランザクションのロールバック処理は、透過的トランザクション機能(実行制御基盤)で行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、個別プログラムでのトランザクション制御は必要ない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
+  </si>
+  <si>
+    <t>必要なログ出力は共通処理の中で行うため、個別プログラムでログ出力を実装する必要はない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値（入力したDBデータやファイル等）として不正な値を受け取った場合のエラー。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時には現在のトランザクションをロールバックし、更新途中の内容は破棄する。これにより、</t>
+    <rPh sb="30" eb="32">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力内容の詳細は「7.13.ログ」を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -847,7 +1050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1176,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1069,25 +1275,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>111597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5A1700-6EBC-486D-8B85-EA1F3256788E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="10829925"/>
+          <a:ext cx="6962775" cy="5540847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63367</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>230734</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1069" name="グループ化 1068">
+        <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992A199D-F998-42A8-ACB8-4D70275CAB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67002E6A-5585-454B-AFAB-9691EBC5F07B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,10 +1356,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="339592" y="3800475"/>
-          <a:ext cx="8718682" cy="2981325"/>
-          <a:chOff x="72892" y="3990975"/>
-          <a:chExt cx="8718682" cy="2981325"/>
+          <a:off x="230734" y="4086225"/>
+          <a:ext cx="9027566" cy="3086100"/>
+          <a:chOff x="230734" y="4086225"/>
+          <a:chExt cx="9027566" cy="3086100"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1114,8 +1375,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1504949" y="3990975"/>
-            <a:ext cx="7286625" cy="2981325"/>
+            <a:off x="1552575" y="4086225"/>
+            <a:ext cx="7705725" cy="3086100"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -1171,8 +1432,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3028951" y="4486275"/>
-            <a:ext cx="2647950" cy="2371725"/>
+            <a:off x="3554215" y="4486276"/>
+            <a:ext cx="3141860" cy="1600200"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -1236,8 +1497,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="72892" y="4438650"/>
-            <a:ext cx="1381125" cy="933450"/>
+            <a:off x="230734" y="4924425"/>
+            <a:ext cx="1380882" cy="933450"/>
             <a:chOff x="406267" y="4114800"/>
             <a:chExt cx="1381125" cy="933450"/>
           </a:xfrm>
@@ -1256,13 +1517,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -1299,9 +1560,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="9525" cmpd="sng">
               <a:noFill/>
             </a:ln>
@@ -1346,8 +1605,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1352550" y="4819650"/>
-            <a:ext cx="352425" cy="0"/>
+            <a:off x="1457325" y="5295900"/>
+            <a:ext cx="521977" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1371,50 +1630,12 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="直線コネクタ 31">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="グループ化 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00DFC78-7E40-4B8C-9D01-700CB2E411C1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1514475" y="5743575"/>
-            <a:ext cx="7248525" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:prstDash val="dash"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="64" name="グループ化 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65AB77E-1209-4FB0-A0E6-8B79379F685D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6756D96E-9FD3-418B-A5EE-688911AD4DF1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,18 +1643,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3162302" y="5095874"/>
-            <a:ext cx="1142998" cy="1657351"/>
-            <a:chOff x="3952877" y="5114924"/>
-            <a:chExt cx="1142998" cy="1657351"/>
+            <a:off x="1986641" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="116" name="四角形: 角を丸くする 115">
+            <xdr:cNvPr id="193" name="四角形: 角を丸くする 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C42D039-A99C-46D7-B4CD-D4F19DD4CE9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B737317A-F6AE-4AD1-9A6B-A22E39F1171C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1441,11 +1662,13 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4114800" y="5114924"/>
-              <a:ext cx="809626" cy="371475"/>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
-              <a:avLst/>
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
             </a:prstGeom>
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -1470,17 +1693,17 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
                 <a:t>ジョブ</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>B1</a:t>
+                <a:t>A1</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
@@ -1488,10 +1711,10 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="123" name="グループ化 122">
+            <xdr:cNvPr id="194" name="グループ化 193">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AFE852-1589-4614-9C4F-856B71695E01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A639B6-466E-4DB4-B56F-99B23287882A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,18 +1722,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="124" name="正方形/長方形 123">
+              <xdr:cNvPr id="196" name="正方形/長方形 195">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C860771E-168D-4C9B-9F9E-06A881F542C9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34E0016-791B-4E87-A630-369935A8F054}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1518,8 +1741,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1549,7 +1772,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
                   <a:t>シェルスクリプト</a:t>
                 </a:r>
               </a:p>
@@ -1557,10 +1780,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="125" name="正方形/長方形 124">
+              <xdr:cNvPr id="197" name="正方形/長方形 196">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D73BEB8-B995-4A8D-A00B-8E6242E40EF9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6BF3D9-4261-4183-B209-BA89FF898080}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1568,8 +1791,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1596,1102 +1819,18 @@
               <a:p>
                 <a:pPr algn="ctr"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
                   <a:t>プログラム</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>B1</a:t>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>A1</a:t>
                 </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EA0E81-8AEC-40C8-81EB-2ACD24C7B4A0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="116" idx="2"/>
-              <a:endCxn id="124" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5486399"/>
-              <a:ext cx="4763" cy="552451"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="178" name="直線矢印コネクタ 177">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A5F16A-FF49-4825-A30A-1B8FF3EBC1D1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2609850" y="4819650"/>
-            <a:ext cx="428625" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="3">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="180" name="直線矢印コネクタ 179">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82951869-23BA-4FAD-A75D-08FD453BDD63}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="116" idx="3"/>
-            <a:endCxn id="185" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4133851" y="5281612"/>
-            <a:ext cx="447674" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="3">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="184" name="グループ化 183">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BF4E49-060D-4624-9A24-919AD4C4FB3A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4419602" y="5095874"/>
-            <a:ext cx="1142998" cy="1657351"/>
-            <a:chOff x="3952877" y="5114924"/>
-            <a:chExt cx="1142998" cy="1657351"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="四角形: 角を丸くする 184">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98500DB1-26F6-4863-96AA-D43BDDAE5009}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="5114924"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>B2</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="186" name="グループ化 185">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A5A6BE-5182-4ACE-BCF1-CD88C522C518}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="188" name="正方形/長方形 187">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EE8EB2-172E-48D8-9C72-CBC7BF17E2BC}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="189" name="正方形/長方形 188">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191153FD-5EC2-4C74-AAE1-1F8459034406}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>B2</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="187" name="直線矢印コネクタ 186">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B726C1D6-0955-488F-90E7-624C89DF2898}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="185" idx="2"/>
-              <a:endCxn id="188" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5486399"/>
-              <a:ext cx="4763" cy="552451"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="192" name="グループ化 191">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206ABC52-3D3F-488E-9836-5A6EF011A62D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1600202" y="4629149"/>
-            <a:ext cx="1142998" cy="2124076"/>
-            <a:chOff x="3952877" y="4648199"/>
-            <a:chExt cx="1142998" cy="2124076"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="193" name="四角形: 角を丸くする 192">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B737317A-F6AE-4AD1-9A6B-A22E39F1171C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="4648199"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>A1</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="194" name="グループ化 193">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A639B6-466E-4DB4-B56F-99B23287882A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="196" name="正方形/長方形 195">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34E0016-791B-4E87-A630-369935A8F054}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="197" name="正方形/長方形 196">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6BF3D9-4261-4183-B209-BA89FF898080}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>A1</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="195" name="直線矢印コネクタ 194">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A15F8D6-B366-43F1-AAAA-B10FC590EFFA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="193" idx="2"/>
-              <a:endCxn id="196" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5019674"/>
-              <a:ext cx="4763" cy="1019176"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="199" name="グループ化 198">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6E7DEA-86C7-4090-B977-6476B48E59DA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6181727" y="5095874"/>
-            <a:ext cx="1142998" cy="1657351"/>
-            <a:chOff x="3952877" y="5114924"/>
-            <a:chExt cx="1142998" cy="1657351"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="200" name="四角形: 角を丸くする 199">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E068F8DA-7182-458F-95DA-5F6C6BFDE159}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="5114924"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>A4</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="201" name="グループ化 200">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2F0B79-ECB9-40A2-8CF5-2582866C8D6C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="203" name="正方形/長方形 202">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621DC23E-878D-430D-BF82-16E83FFC9E31}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="204" name="正方形/長方形 203">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A941B4D-D9DA-41BA-8179-3F6843BAD5FF}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>A4</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421FFE13-C58F-4BAC-90C6-5CD31B01AE4F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="200" idx="2"/>
-              <a:endCxn id="203" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5486399"/>
-              <a:ext cx="4763" cy="552451"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="205" name="グループ化 204">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5317B8E-1286-4974-AE88-93AB48D1DA25}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="7562852" y="4638674"/>
-            <a:ext cx="1142998" cy="2114551"/>
-            <a:chOff x="3952877" y="4657724"/>
-            <a:chExt cx="1142998" cy="2114551"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206" name="四角形: 角を丸くする 205">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA645851-BD6F-460A-B0EE-24FA1497902A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4114800" y="4657724"/>
-              <a:ext cx="809626" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>ジョブ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>A3</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="207" name="グループ化 206">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989177B2-247D-4C8D-ADFC-A94DC65730EA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="3952877" y="6038850"/>
-              <a:ext cx="1142998" cy="733425"/>
-              <a:chOff x="3495677" y="5572125"/>
-              <a:chExt cx="1142998" cy="733425"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="209" name="正方形/長方形 208">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BC8F4D-C973-46B6-9A25-A6EBBE19F381}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3495677" y="5572125"/>
-                <a:ext cx="1142998" cy="733425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="CCFFCC"/>
-              </a:solidFill>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                  <a:t>シェルスクリプト</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="210" name="正方形/長方形 209">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C5581E-8C28-47D3-886B-8E5B50AC2E70}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3571875" y="5895975"/>
-                <a:ext cx="1000126" cy="352425"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="12700"/>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-                  <a:t>プログラム</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-                  <a:t>A3</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62248DA2-33C6-43A5-9535-EAA490F79C3B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="206" idx="2"/>
-              <a:endCxn id="209" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4519613" y="5029199"/>
-              <a:ext cx="4763" cy="1009651"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="3">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
@@ -2706,8 +1845,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5686425" y="4819650"/>
-            <a:ext cx="2028825" cy="0"/>
+            <a:off x="7200789" y="5295900"/>
+            <a:ext cx="676386" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2744,8 +1883,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5857875" y="4610101"/>
-            <a:ext cx="247650" cy="400050"/>
+            <a:off x="6923503" y="5095876"/>
+            <a:ext cx="247324" cy="400050"/>
           </a:xfrm>
           <a:prstGeom prst="diamond">
             <a:avLst/>
@@ -2786,13 +1925,13 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="1064" idx="2"/>
-            <a:endCxn id="200" idx="1"/>
+            <a:endCxn id="50" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000" flipH="1">
-            <a:off x="6026945" y="4964906"/>
-            <a:ext cx="271461" cy="361950"/>
+            <a:off x="6700510" y="5842581"/>
+            <a:ext cx="1023936" cy="330626"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -2816,62 +1955,929 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="44" name="グループ化 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CBC5DA-A13C-46F6-982F-9BFA66E98009}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7901666" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6714354E-EA8A-4C5F-A2ED-C51EEBB6F082}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>A3</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="46" name="グループ化 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D28B2D-8C11-4E37-ADD3-22688600257C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="47" name="正方形/長方形 46">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7D9ED5-E99D-4BC6-8A97-EAE0E512F5A3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="48" name="正方形/長方形 47">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E953DD5-441C-414F-8368-B1A114CD7914}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>A3</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7260A180-8FDB-449D-AE63-23F8CAEE4726}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7377791" y="5991224"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="四角形: 角を丸くする 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B3BD91-7E2E-4943-A9FB-55A23FCC58BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>A4</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="51" name="グループ化 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC6780D-DA77-4972-A90F-E3B70CF13296}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="52" name="正方形/長方形 51">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB9F7C4-DF09-4A15-9DE4-2074137D0D75}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="53" name="正方形/長方形 52">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3CBE65-5959-4CA0-A55C-97643CC111D3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>A4</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="グループ化 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954A067C-5467-481E-A63C-8B8C04DDC3B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3691616" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="四角形: 角を丸くする 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8310C426-2DAF-4EC1-8474-EE4961D68FE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>B1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="56" name="グループ化 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF8A4C-F684-49F7-B605-0183354CD74C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="57" name="正方形/長方形 56">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714CF296-6884-4AE1-B4D9-0F96AE848C2C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="58" name="正方形/長方形 57">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCABB57-21A7-4AAE-A036-5D0320E09523}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>B1</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="59" name="グループ化 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DD7B76-9B98-48A0-813C-845D26FA12B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5310866" y="4810124"/>
+            <a:ext cx="1242333" cy="1057276"/>
+            <a:chOff x="1834241" y="4724399"/>
+            <a:chExt cx="1242333" cy="1057276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="四角形: 角を丸くする 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C7FB3A-0090-4CE6-9DE6-2A6F2A943E59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1834241" y="4724399"/>
+              <a:ext cx="1242333" cy="1057276"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6371"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>ジョブ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>B2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="61" name="グループ化 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C37D8B4-81FE-40E2-881A-1EB717D8E39B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1929306" y="5074104"/>
+              <a:ext cx="1057463" cy="617764"/>
+              <a:chOff x="3495677" y="5687786"/>
+              <a:chExt cx="1058109" cy="617764"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="62" name="正方形/長方形 61">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E2C8B9-342C-44FB-AD94-3BBC48A30773}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3495677" y="5687786"/>
+                <a:ext cx="1058109" cy="617764"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="CCFFCC"/>
+              </a:solidFill>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>シェルスクリプト</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="63" name="正方形/長方形 62">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6A3676-F29B-41D3-9282-C7F474657F64}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3571875" y="5939518"/>
+                <a:ext cx="919279" cy="308882"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="12700"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+                  <a:t>プログラム</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+                  <a:t>B2</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA4F7FF-397B-4E93-A5E0-5F175163CC45}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3283539" y="5295900"/>
+            <a:ext cx="353113" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8429C03-4DCF-4417-91B4-CE333FBB65C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4950414" y="5295900"/>
+            <a:ext cx="353113" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE464C86-1696-42A0-817B-C4B7A96D0F90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6569664" y="5295900"/>
+            <a:ext cx="353113" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>111597</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5A1700-6EBC-486D-8B85-EA1F3256788E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209675" y="10829925"/>
-          <a:ext cx="6962775" cy="5540847"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3201,7 +3207,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ609"/>
+  <dimension ref="A1:AJ639"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3217,43 +3223,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
+      <c r="R1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="51"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3262,43 +3268,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="60"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3307,39 +3313,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="63"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3373,13 +3379,13 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="15"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3389,7 +3395,7 @@
         <v>4.1.2.</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3398,25 +3404,25 @@
         <v>4.1.2.1.</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="31" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -3442,14 +3448,14 @@
     </row>
     <row r="18" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3474,44 +3480,46 @@
       <c r="AF18" s="19"/>
     </row>
     <row r="19" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="19"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="30"/>
     </row>
     <row r="20" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -3536,144 +3544,204 @@
       <c r="AF20" s="19"/>
     </row>
     <row r="21" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="19"/>
+    </row>
+    <row r="22" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="19"/>
+    </row>
+    <row r="23" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="27"/>
+    </row>
+    <row r="24" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="24"/>
+    </row>
+    <row r="25" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="19"/>
+    </row>
+    <row r="26" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="27"/>
-    </row>
-    <row r="22" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="24"/>
-    </row>
-    <row r="23" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="19"/>
-    </row>
-    <row r="24" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="27"/>
-      <c r="AI24"/>
-    </row>
-    <row r="25" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="27"/>
+      <c r="AI26"/>
+    </row>
     <row r="27" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AJ30" s="21"/>
-    </row>
+    <row r="30" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="6:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ32" s="21"/>
+    </row>
     <row r="33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3690,84 +3758,76 @@
     <row r="46" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G50" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="52" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="15" t="str">
+      <c r="G52" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G53" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="15" t="str">
         <f>$D$13&amp;"2."</f>
         <v>4.1.2.2.</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="15"/>
-      <c r="F53" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="15"/>
       <c r="F55" s="4" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
       <c r="F56" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
-      <c r="F57" s="4" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="58" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
       <c r="F58" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
       <c r="F59" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
+      <c r="F61" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="62" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
       <c r="F63" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3776,58 +3836,70 @@
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
       <c r="F65" s="4" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E66" s="15"/>
       <c r="F66" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="15"/>
+    </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="15"/>
       <c r="F68" s="4" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F69" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71" s="15" t="str">
+      <c r="F71" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>4.1.3.</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3862,483 +3934,594 @@
     <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D118" s="15" t="str">
+    <row r="113" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.1.4.</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E120" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D125" s="15" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E126" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>4.1.5.</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E126" s="15" t="str">
-        <f>$D$125&amp;"1."</f>
+      <c r="E128" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="15" t="str">
+        <f>$D$128&amp;"1."</f>
         <v>4.1.5.1.</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F129" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="15" t="str">
-        <f>$D$125&amp;"2."</f>
-        <v>4.1.5.2.</v>
-      </c>
       <c r="F130" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F131" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15" t="str">
-        <f>$D$125&amp;"3."</f>
-        <v>4.1.5.3.</v>
+        <f>$D$128&amp;"2."</f>
+        <v>4.1.5.2.</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F134" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D136" s="15" t="str">
+      <c r="E136" s="15" t="str">
+        <f>$D$128&amp;"3."</f>
+        <v>4.1.5.3.</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>4.1.6.</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="15" t="str">
-        <f>$D$136&amp;"1."</f>
+      <c r="E139" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="15" t="str">
+        <f>$D$139&amp;"1."</f>
         <v>4.1.6.1.</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F140" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="15" t="str">
+        <f>$D$139&amp;"2."</f>
+        <v>4.1.6.2.</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="15"/>
+      <c r="F146" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F139" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F140" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="15" t="str">
-        <f>$D$136&amp;"2."</f>
-        <v>4.1.6.2.</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D147" s="15" t="str">
+    <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="15" t="str">
         <f>$C$7&amp;"7."</f>
         <v>4.1.7.</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="15" t="str">
-        <f>$D$147&amp;"1."</f>
+      <c r="E150" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="15"/>
+      <c r="E151" s="15" t="str">
+        <f>$D$150&amp;"1."</f>
         <v>4.1.7.1.</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F151" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F152" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F154" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G155" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G156" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G157" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G160" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E162" s="15" t="str">
+        <f>$D$150&amp;"2."</f>
+        <v>4.1.7.2.</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="42" t="str">
+        <f>$E$162&amp;"1."</f>
+        <v>4.1.7.2.1.</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G165" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G166" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G167" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="42" t="str">
+        <f>$E$162&amp;"2."</f>
+        <v>4.1.7.2.2.</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G170" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G171" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G172" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G173" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F175" s="42" t="str">
+        <f>$E$162&amp;"3."</f>
+        <v>4.1.7.2.3.</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G176" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G177" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G178" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E180" s="15" t="str">
+        <f>$D$150&amp;"3."</f>
+        <v>4.1.7.3.</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F181" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F183" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F185" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F186" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F187" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E189" s="15" t="str">
+        <f>$D$150&amp;"4."</f>
+        <v>4.1.7.4.</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F190" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F191" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="4" t="s">
+    <row r="192" spans="5:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F193" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="4" t="s">
+    <row r="194" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F195" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J195" s="32"/>
+      <c r="K195" s="32"/>
+      <c r="L195" s="32"/>
+      <c r="M195" s="32"/>
+      <c r="N195" s="32"/>
+      <c r="O195" s="32"/>
+      <c r="P195" s="32"/>
+      <c r="Q195" s="32"/>
+      <c r="R195" s="32"/>
+      <c r="S195" s="32"/>
+      <c r="T195" s="32"/>
+      <c r="U195" s="32"/>
+      <c r="V195" s="32"/>
+      <c r="W195" s="32"/>
+      <c r="X195" s="32"/>
+      <c r="Y195" s="32"/>
+      <c r="Z195" s="32"/>
+      <c r="AA195" s="32"/>
+      <c r="AB195" s="41"/>
+    </row>
+    <row r="196" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F196" s="37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="4" t="s">
+      <c r="G196" s="38"/>
+      <c r="H196" s="38"/>
+      <c r="I196" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J196" s="38"/>
+      <c r="K196" s="38"/>
+      <c r="L196" s="38"/>
+      <c r="M196" s="38"/>
+      <c r="N196" s="38"/>
+      <c r="O196" s="38"/>
+      <c r="P196" s="38"/>
+      <c r="Q196" s="38"/>
+      <c r="R196" s="38"/>
+      <c r="S196" s="38"/>
+      <c r="T196" s="38"/>
+      <c r="U196" s="38"/>
+      <c r="V196" s="38"/>
+      <c r="W196" s="38"/>
+      <c r="X196" s="38"/>
+      <c r="Y196" s="38"/>
+      <c r="Z196" s="38"/>
+      <c r="AA196" s="38"/>
+      <c r="AB196" s="40"/>
+    </row>
+    <row r="197" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F197" s="36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="4" t="s">
+      <c r="G197" s="18"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="4" t="s">
+      <c r="J197" s="18"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="18"/>
+      <c r="M197" s="18"/>
+      <c r="N197" s="18"/>
+      <c r="O197" s="18"/>
+      <c r="P197" s="18"/>
+      <c r="Q197" s="18"/>
+      <c r="R197" s="18"/>
+      <c r="S197" s="18"/>
+      <c r="T197" s="18"/>
+      <c r="U197" s="18"/>
+      <c r="V197" s="18"/>
+      <c r="W197" s="18"/>
+      <c r="X197" s="18"/>
+      <c r="Y197" s="18"/>
+      <c r="Z197" s="18"/>
+      <c r="AA197" s="18"/>
+      <c r="AB197" s="19"/>
+    </row>
+    <row r="198" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F198" s="17"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
+      <c r="O198" s="18"/>
+      <c r="P198" s="18"/>
+      <c r="Q198" s="18"/>
+      <c r="R198" s="18"/>
+      <c r="S198" s="18"/>
+      <c r="T198" s="18"/>
+      <c r="U198" s="18"/>
+      <c r="V198" s="18"/>
+      <c r="W198" s="18"/>
+      <c r="X198" s="18"/>
+      <c r="Y198" s="18"/>
+      <c r="Z198" s="18"/>
+      <c r="AA198" s="18"/>
+      <c r="AB198" s="19"/>
+    </row>
+    <row r="199" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F199" s="17"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
+      <c r="O199" s="18"/>
+      <c r="P199" s="18"/>
+      <c r="Q199" s="18"/>
+      <c r="R199" s="18"/>
+      <c r="S199" s="18"/>
+      <c r="T199" s="18"/>
+      <c r="U199" s="18"/>
+      <c r="V199" s="18"/>
+      <c r="W199" s="18"/>
+      <c r="X199" s="18"/>
+      <c r="Y199" s="18"/>
+      <c r="Z199" s="18"/>
+      <c r="AA199" s="18"/>
+      <c r="AB199" s="19"/>
+    </row>
+    <row r="200" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F200" s="17"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="4" t="s">
+      <c r="J200" s="18"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
+      <c r="O200" s="18"/>
+      <c r="P200" s="18"/>
+      <c r="Q200" s="18"/>
+      <c r="R200" s="18"/>
+      <c r="S200" s="18"/>
+      <c r="T200" s="18"/>
+      <c r="U200" s="18"/>
+      <c r="V200" s="18"/>
+      <c r="W200" s="18"/>
+      <c r="X200" s="18"/>
+      <c r="Y200" s="18"/>
+      <c r="Z200" s="18"/>
+      <c r="AA200" s="18"/>
+      <c r="AB200" s="19"/>
+    </row>
+    <row r="201" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F201" s="28"/>
+      <c r="G201" s="29"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F157" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E159" s="15" t="str">
-        <f>$D$147&amp;"2."</f>
-        <v>4.1.7.2.</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="162" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F163" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="164" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F165" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
-      <c r="I165" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J165" s="32"/>
-      <c r="K165" s="32"/>
-      <c r="L165" s="32"/>
-      <c r="M165" s="32"/>
-      <c r="N165" s="32"/>
-      <c r="O165" s="32"/>
-      <c r="P165" s="32"/>
-      <c r="Q165" s="32"/>
-      <c r="R165" s="32"/>
-      <c r="S165" s="32"/>
-      <c r="T165" s="32"/>
-      <c r="U165" s="32"/>
-      <c r="V165" s="32"/>
-      <c r="W165" s="32"/>
-      <c r="X165" s="32"/>
-      <c r="Y165" s="32"/>
-      <c r="Z165" s="32"/>
-      <c r="AA165" s="32"/>
-      <c r="AB165" s="41"/>
-    </row>
-    <row r="166" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G166" s="38"/>
-      <c r="H166" s="38"/>
-      <c r="I166" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="J166" s="38"/>
-      <c r="K166" s="38"/>
-      <c r="L166" s="38"/>
-      <c r="M166" s="38"/>
-      <c r="N166" s="38"/>
-      <c r="O166" s="38"/>
-      <c r="P166" s="38"/>
-      <c r="Q166" s="38"/>
-      <c r="R166" s="38"/>
-      <c r="S166" s="38"/>
-      <c r="T166" s="38"/>
-      <c r="U166" s="38"/>
-      <c r="V166" s="38"/>
-      <c r="W166" s="38"/>
-      <c r="X166" s="38"/>
-      <c r="Y166" s="38"/>
-      <c r="Z166" s="38"/>
-      <c r="AA166" s="38"/>
-      <c r="AB166" s="40"/>
-    </row>
-    <row r="167" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="18"/>
-      <c r="Q167" s="18"/>
-      <c r="R167" s="18"/>
-      <c r="S167" s="18"/>
-      <c r="T167" s="18"/>
-      <c r="U167" s="18"/>
-      <c r="V167" s="18"/>
-      <c r="W167" s="18"/>
-      <c r="X167" s="18"/>
-      <c r="Y167" s="18"/>
-      <c r="Z167" s="18"/>
-      <c r="AA167" s="18"/>
-      <c r="AB167" s="19"/>
-    </row>
-    <row r="168" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F168" s="17"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-      <c r="R168" s="18"/>
-      <c r="S168" s="18"/>
-      <c r="T168" s="18"/>
-      <c r="U168" s="18"/>
-      <c r="V168" s="18"/>
-      <c r="W168" s="18"/>
-      <c r="X168" s="18"/>
-      <c r="Y168" s="18"/>
-      <c r="Z168" s="18"/>
-      <c r="AA168" s="18"/>
-      <c r="AB168" s="19"/>
-    </row>
-    <row r="169" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="17"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
-      <c r="P169" s="18"/>
-      <c r="Q169" s="18"/>
-      <c r="R169" s="18"/>
-      <c r="S169" s="18"/>
-      <c r="T169" s="18"/>
-      <c r="U169" s="18"/>
-      <c r="V169" s="18"/>
-      <c r="W169" s="18"/>
-      <c r="X169" s="18"/>
-      <c r="Y169" s="18"/>
-      <c r="Z169" s="18"/>
-      <c r="AA169" s="18"/>
-      <c r="AB169" s="19"/>
-    </row>
-    <row r="170" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F170" s="17"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J170" s="18"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="18"/>
-      <c r="P170" s="18"/>
-      <c r="Q170" s="18"/>
-      <c r="R170" s="18"/>
-      <c r="S170" s="18"/>
-      <c r="T170" s="18"/>
-      <c r="U170" s="18"/>
-      <c r="V170" s="18"/>
-      <c r="W170" s="18"/>
-      <c r="X170" s="18"/>
-      <c r="Y170" s="18"/>
-      <c r="Z170" s="18"/>
-      <c r="AA170" s="18"/>
-      <c r="AB170" s="19"/>
-    </row>
-    <row r="171" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="28"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J171" s="29"/>
-      <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29"/>
-      <c r="O171" s="29"/>
-      <c r="P171" s="29"/>
-      <c r="Q171" s="29"/>
-      <c r="R171" s="29"/>
-      <c r="S171" s="29"/>
-      <c r="T171" s="29"/>
-      <c r="U171" s="29"/>
-      <c r="V171" s="29"/>
-      <c r="W171" s="29"/>
-      <c r="X171" s="29"/>
-      <c r="Y171" s="29"/>
-      <c r="Z171" s="29"/>
-      <c r="AA171" s="29"/>
-      <c r="AB171" s="30"/>
-    </row>
-    <row r="172" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D173" s="20"/>
-    </row>
-    <row r="174" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D174" s="20"/>
-    </row>
-    <row r="175" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D175" s="20"/>
-    </row>
-    <row r="176" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="J201" s="29"/>
+      <c r="K201" s="29"/>
+      <c r="L201" s="29"/>
+      <c r="M201" s="29"/>
+      <c r="N201" s="29"/>
+      <c r="O201" s="29"/>
+      <c r="P201" s="29"/>
+      <c r="Q201" s="29"/>
+      <c r="R201" s="29"/>
+      <c r="S201" s="29"/>
+      <c r="T201" s="29"/>
+      <c r="U201" s="29"/>
+      <c r="V201" s="29"/>
+      <c r="W201" s="29"/>
+      <c r="X201" s="29"/>
+      <c r="Y201" s="29"/>
+      <c r="Z201" s="29"/>
+      <c r="AA201" s="29"/>
+      <c r="AB201" s="30"/>
+    </row>
+    <row r="202" spans="4:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D203" s="20"/>
+    </row>
+    <row r="204" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D204" s="20"/>
+    </row>
+    <row r="205" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D205" s="20"/>
+    </row>
+    <row r="206" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="4:28" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4740,6 +4923,36 @@
     <row r="607" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4757,10 +4970,11 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="25" max="34" man="1"/>
-    <brk id="70" max="34" man="1"/>
-    <brk id="146" max="34" man="1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="27" max="34" man="1"/>
+    <brk id="73" max="34" man="1"/>
+    <brk id="149" max="34" man="1"/>
+    <brk id="179" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
